--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_9.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_13_9.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1428839.918006212</v>
+        <v>-1431513.473895347</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>9514625.964162862</v>
+        <v>9514625.964162864</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673439</v>
+        <v>603248.4937673421</v>
       </c>
     </row>
     <row r="9">
@@ -1367,22 +1367,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>12.72878753391103</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>410.9408310226502</v>
+        <v>348.048564794343</v>
       </c>
       <c r="H11" t="n">
         <v>294.803427249607</v>
@@ -1424,19 +1424,19 @@
         <v>204.0016038932791</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9967003884377</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="12">
@@ -1534,7 +1534,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>58.64013715793513</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
@@ -1573,19 +1573,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>89.31749152360085</v>
       </c>
       <c r="S13" t="n">
         <v>189.9183772485996</v>
       </c>
       <c r="T13" t="n">
-        <v>187.0345702934936</v>
+        <v>219.5855665954515</v>
       </c>
       <c r="U13" t="n">
-        <v>286.2123056607526</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1610,7 +1610,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E14" t="n">
         <v>381.9303700722618</v>
@@ -1625,7 +1625,7 @@
         <v>294.803427249607</v>
       </c>
       <c r="I14" t="n">
-        <v>42.31348951888501</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>109.6231253887476</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>204.0016038932791</v>
@@ -1667,13 +1667,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>336.3263000132473</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>133.5798733002002</v>
       </c>
     </row>
     <row r="15">
@@ -1762,25 +1762,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>133.9697273292368</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>166.0343782699241</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>139.3347359891177</v>
+        <v>144.8312101021039</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1810,13 +1810,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>89.31749152360085</v>
       </c>
       <c r="S16" t="n">
         <v>189.9183772485996</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>219.5855665954515</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -1825,13 +1825,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>359.5132882728956</v>
       </c>
       <c r="G17" t="n">
-        <v>315.1345186552401</v>
+        <v>363.5780735538344</v>
       </c>
       <c r="H17" t="n">
         <v>247.4406697807912</v>
@@ -1901,7 +1901,7 @@
         <v>203.6339429196219</v>
       </c>
       <c r="V17" t="n">
-        <v>280.389501001319</v>
+        <v>231.9459461027274</v>
       </c>
       <c r="W17" t="n">
         <v>301.8782112485972</v>
@@ -2084,16 +2084,16 @@
         <v>317.9101343021916</v>
       </c>
       <c r="D20" t="n">
-        <v>307.3202841518671</v>
+        <v>307.320284151867</v>
       </c>
       <c r="E20" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F20" t="n">
-        <v>359.5132882728956</v>
+        <v>359.5132882728955</v>
       </c>
       <c r="G20" t="n">
-        <v>363.5780735538344</v>
+        <v>363.5780735538343</v>
       </c>
       <c r="H20" t="n">
         <v>247.4406697807911</v>
@@ -2129,22 +2129,22 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>62.26036791993167</v>
+        <v>13.81681302134045</v>
       </c>
       <c r="T20" t="n">
         <v>156.6388464244632</v>
       </c>
       <c r="U20" t="n">
-        <v>155.1903880210279</v>
+        <v>203.6339429196218</v>
       </c>
       <c r="V20" t="n">
         <v>280.389501001319</v>
       </c>
       <c r="W20" t="n">
-        <v>301.8782112485972</v>
+        <v>301.8782112485971</v>
       </c>
       <c r="X20" t="n">
-        <v>322.3683432096532</v>
+        <v>322.3683432096531</v>
       </c>
       <c r="Y20" t="n">
         <v>338.8751811872377</v>
@@ -2245,19 +2245,19 @@
         <v>101.2527155493965</v>
       </c>
       <c r="E22" t="n">
-        <v>99.07120517775328</v>
+        <v>99.07120517775327</v>
       </c>
       <c r="F22" t="n">
-        <v>98.05829055411536</v>
+        <v>98.05829055411535</v>
       </c>
       <c r="G22" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H22" t="n">
-        <v>97.46845263328802</v>
+        <v>97.46845263328801</v>
       </c>
       <c r="I22" t="n">
-        <v>49.24738654141749</v>
+        <v>49.24738654141748</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>41.95473405478496</v>
+        <v>41.95473405478494</v>
       </c>
       <c r="S22" t="n">
         <v>142.5556197797837</v>
@@ -2302,7 +2302,7 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X22" t="n">
-        <v>178.3468979202213</v>
+        <v>178.3468979202212</v>
       </c>
       <c r="Y22" t="n">
         <v>171.2218958832789</v>
@@ -2318,22 +2318,22 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C23" t="n">
-        <v>317.9101343021917</v>
+        <v>317.9101343021916</v>
       </c>
       <c r="D23" t="n">
-        <v>307.3202841518671</v>
+        <v>307.320284151867</v>
       </c>
       <c r="E23" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F23" t="n">
-        <v>359.5132882728956</v>
+        <v>359.5132882728955</v>
       </c>
       <c r="G23" t="n">
-        <v>363.5780735538344</v>
+        <v>363.5780735538343</v>
       </c>
       <c r="H23" t="n">
-        <v>247.4406697807912</v>
+        <v>247.4406697807911</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2372,16 +2372,16 @@
         <v>156.6388464244632</v>
       </c>
       <c r="U23" t="n">
-        <v>203.6339429196219</v>
+        <v>203.6339429196218</v>
       </c>
       <c r="V23" t="n">
         <v>280.389501001319</v>
       </c>
       <c r="W23" t="n">
-        <v>301.8782112485972</v>
+        <v>301.8782112485971</v>
       </c>
       <c r="X23" t="n">
-        <v>322.3683432096532</v>
+        <v>322.3683432096531</v>
       </c>
       <c r="Y23" t="n">
         <v>338.8751811872377</v>
@@ -2476,25 +2476,25 @@
         <v>132.4692227131214</v>
       </c>
       <c r="C25" t="n">
-        <v>119.884063629812</v>
+        <v>119.8840636298119</v>
       </c>
       <c r="D25" t="n">
         <v>101.2527155493965</v>
       </c>
       <c r="E25" t="n">
-        <v>99.0712051777533</v>
+        <v>99.07120517775328</v>
       </c>
       <c r="F25" t="n">
-        <v>98.05829055411537</v>
+        <v>98.05829055411536</v>
       </c>
       <c r="G25" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H25" t="n">
-        <v>97.46845263328804</v>
+        <v>97.46845263328802</v>
       </c>
       <c r="I25" t="n">
-        <v>49.24738654141751</v>
+        <v>49.24738654141749</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,16 +2521,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>41.95473405478499</v>
+        <v>41.95473405478496</v>
       </c>
       <c r="S25" t="n">
-        <v>142.5556197797838</v>
+        <v>142.5556197797837</v>
       </c>
       <c r="T25" t="n">
         <v>172.2228091266356</v>
       </c>
       <c r="U25" t="n">
-        <v>238.8495481919368</v>
+        <v>238.8495481919367</v>
       </c>
       <c r="V25" t="n">
         <v>204.7748858550121</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>62.26036791993164</v>
+        <v>62.26036791993167</v>
       </c>
       <c r="T29" t="n">
         <v>156.6388464244632</v>
@@ -2950,25 +2950,25 @@
         <v>132.4692227131214</v>
       </c>
       <c r="C31" t="n">
-        <v>119.8840636298128</v>
+        <v>119.8840636298119</v>
       </c>
       <c r="D31" t="n">
-        <v>101.2527155493964</v>
+        <v>101.2527155493965</v>
       </c>
       <c r="E31" t="n">
-        <v>99.07120517775326</v>
+        <v>99.07120517775236</v>
       </c>
       <c r="F31" t="n">
-        <v>98.05829055411533</v>
+        <v>98.05829055411535</v>
       </c>
       <c r="G31" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H31" t="n">
-        <v>97.468452633288</v>
+        <v>97.46845263328801</v>
       </c>
       <c r="I31" t="n">
-        <v>49.24738654141746</v>
+        <v>49.24738654141748</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3077,10 +3077,10 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.26036791993162</v>
+        <v>62.26036791993167</v>
       </c>
       <c r="T32" t="n">
-        <v>156.6388464244631</v>
+        <v>156.6388464244632</v>
       </c>
       <c r="U32" t="n">
         <v>203.6339429196218</v>
@@ -3190,22 +3190,22 @@
         <v>119.8840636298119</v>
       </c>
       <c r="D34" t="n">
-        <v>101.2527155493964</v>
+        <v>101.2527155493965</v>
       </c>
       <c r="E34" t="n">
-        <v>99.07120517775323</v>
+        <v>99.07120517775328</v>
       </c>
       <c r="F34" t="n">
-        <v>98.0582905541153</v>
+        <v>98.05829055411536</v>
       </c>
       <c r="G34" t="n">
-        <v>118.6716208011081</v>
+        <v>118.6716208011082</v>
       </c>
       <c r="H34" t="n">
-        <v>97.46845263328797</v>
+        <v>97.46845263328802</v>
       </c>
       <c r="I34" t="n">
-        <v>49.24738654141743</v>
+        <v>49.24738654141749</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95473405478491</v>
+        <v>41.95473405478496</v>
       </c>
       <c r="S34" t="n">
         <v>142.5556197797837</v>
       </c>
       <c r="T34" t="n">
-        <v>172.2228091266355</v>
+        <v>172.2228091266356</v>
       </c>
       <c r="U34" t="n">
         <v>238.8495481919367</v>
@@ -3250,10 +3250,10 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X34" t="n">
-        <v>178.3468979202212</v>
+        <v>178.3468979202213</v>
       </c>
       <c r="Y34" t="n">
-        <v>171.2218958832788</v>
+        <v>171.2218958832789</v>
       </c>
     </row>
     <row r="35">
@@ -3263,22 +3263,22 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>335.3710841946646</v>
+        <v>335.3710841946647</v>
       </c>
       <c r="C35" t="n">
         <v>317.9101343021916</v>
       </c>
       <c r="D35" t="n">
-        <v>307.320284151867</v>
+        <v>307.3202841518671</v>
       </c>
       <c r="E35" t="n">
-        <v>334.5676126034458</v>
+        <v>334.5676126034459</v>
       </c>
       <c r="F35" t="n">
-        <v>359.5132882728955</v>
+        <v>359.5132882728956</v>
       </c>
       <c r="G35" t="n">
-        <v>363.5780735538343</v>
+        <v>363.5780735538344</v>
       </c>
       <c r="H35" t="n">
         <v>247.4406697807911</v>
@@ -3314,25 +3314,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>62.2603679199316</v>
+        <v>62.26036791993167</v>
       </c>
       <c r="T35" t="n">
-        <v>156.6388464244631</v>
+        <v>156.6388464244632</v>
       </c>
       <c r="U35" t="n">
         <v>203.6339429196218</v>
       </c>
       <c r="V35" t="n">
-        <v>280.3895010013189</v>
+        <v>280.389501001319</v>
       </c>
       <c r="W35" t="n">
-        <v>301.878211248597</v>
+        <v>301.8782112485972</v>
       </c>
       <c r="X35" t="n">
-        <v>322.3683432096531</v>
+        <v>322.3683432096532</v>
       </c>
       <c r="Y35" t="n">
-        <v>338.8751811872376</v>
+        <v>338.8751811872377</v>
       </c>
     </row>
     <row r="36">
@@ -3427,22 +3427,22 @@
         <v>119.8840636298119</v>
       </c>
       <c r="D37" t="n">
-        <v>101.2527155493964</v>
+        <v>101.2527155493965</v>
       </c>
       <c r="E37" t="n">
-        <v>99.07120517775323</v>
+        <v>99.07120517775328</v>
       </c>
       <c r="F37" t="n">
-        <v>98.0582905541153</v>
+        <v>98.05829055411536</v>
       </c>
       <c r="G37" t="n">
-        <v>118.6716208011081</v>
+        <v>118.6716208011082</v>
       </c>
       <c r="H37" t="n">
-        <v>97.46845263328797</v>
+        <v>97.46845263328802</v>
       </c>
       <c r="I37" t="n">
-        <v>49.24738654141742</v>
+        <v>49.24738654141749</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.9547340547849</v>
+        <v>41.95473405478496</v>
       </c>
       <c r="S37" t="n">
         <v>142.5556197797837</v>
       </c>
       <c r="T37" t="n">
-        <v>172.2228091266355</v>
+        <v>172.2228091266356</v>
       </c>
       <c r="U37" t="n">
         <v>238.8495481919367</v>
@@ -3487,10 +3487,10 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X37" t="n">
-        <v>178.3468979202212</v>
+        <v>178.3468979202213</v>
       </c>
       <c r="Y37" t="n">
-        <v>171.2218958832788</v>
+        <v>171.2218958832789</v>
       </c>
     </row>
     <row r="38">
@@ -3503,22 +3503,22 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C38" t="n">
-        <v>317.9101343021916</v>
+        <v>317.9101343021917</v>
       </c>
       <c r="D38" t="n">
-        <v>307.320284151867</v>
+        <v>307.3202841518671</v>
       </c>
       <c r="E38" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F38" t="n">
-        <v>359.5132882728955</v>
+        <v>359.5132882728956</v>
       </c>
       <c r="G38" t="n">
-        <v>363.5780735538343</v>
+        <v>363.5780735538344</v>
       </c>
       <c r="H38" t="n">
-        <v>247.4406697807911</v>
+        <v>247.4406697807912</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3551,22 +3551,22 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.26036791993164</v>
+        <v>62.26036791993167</v>
       </c>
       <c r="T38" t="n">
         <v>156.6388464244632</v>
       </c>
       <c r="U38" t="n">
-        <v>203.6339429196218</v>
+        <v>203.6339429196219</v>
       </c>
       <c r="V38" t="n">
         <v>280.389501001319</v>
       </c>
       <c r="W38" t="n">
-        <v>301.8782112485971</v>
+        <v>301.8782112485972</v>
       </c>
       <c r="X38" t="n">
-        <v>322.3683432096531</v>
+        <v>322.3683432096532</v>
       </c>
       <c r="Y38" t="n">
         <v>338.8751811872377</v>
@@ -3661,25 +3661,25 @@
         <v>132.4692227131214</v>
       </c>
       <c r="C40" t="n">
-        <v>119.8840636298119</v>
+        <v>119.884063629812</v>
       </c>
       <c r="D40" t="n">
-        <v>101.2527155493964</v>
+        <v>101.2527155493965</v>
       </c>
       <c r="E40" t="n">
-        <v>99.07120517775326</v>
+        <v>99.0712051777533</v>
       </c>
       <c r="F40" t="n">
-        <v>98.05829055411533</v>
+        <v>98.05829055411537</v>
       </c>
       <c r="G40" t="n">
         <v>118.6716208011082</v>
       </c>
       <c r="H40" t="n">
-        <v>97.468452633288</v>
+        <v>97.46845263328804</v>
       </c>
       <c r="I40" t="n">
-        <v>49.24738654141746</v>
+        <v>49.24738654141751</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,16 +3706,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95473405478494</v>
+        <v>41.95473405478499</v>
       </c>
       <c r="S40" t="n">
-        <v>142.5556197797837</v>
+        <v>142.5556197797838</v>
       </c>
       <c r="T40" t="n">
         <v>172.2228091266356</v>
       </c>
       <c r="U40" t="n">
-        <v>238.8495481919367</v>
+        <v>238.8495481919368</v>
       </c>
       <c r="V40" t="n">
         <v>204.7748858550121</v>
@@ -3724,7 +3724,7 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X40" t="n">
-        <v>178.3468979202212</v>
+        <v>178.3468979202213</v>
       </c>
       <c r="Y40" t="n">
         <v>171.2218958832789</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.26036791993168</v>
+        <v>62.26036791993167</v>
       </c>
       <c r="T41" t="n">
         <v>156.6388464244632</v>
@@ -3916,7 +3916,7 @@
         <v>97.46845263328804</v>
       </c>
       <c r="I43" t="n">
-        <v>49.2473865414175</v>
+        <v>49.24738654141751</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,10 +3943,10 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95473405478498</v>
+        <v>41.95473405478499</v>
       </c>
       <c r="S43" t="n">
-        <v>142.5556197797837</v>
+        <v>142.5556197797838</v>
       </c>
       <c r="T43" t="n">
         <v>172.2228091266356</v>
@@ -3977,22 +3977,22 @@
         <v>335.3710841946647</v>
       </c>
       <c r="C44" t="n">
-        <v>317.9101343021916</v>
+        <v>317.9101343021917</v>
       </c>
       <c r="D44" t="n">
-        <v>307.320284151867</v>
+        <v>307.3202841518671</v>
       </c>
       <c r="E44" t="n">
         <v>334.5676126034459</v>
       </c>
       <c r="F44" t="n">
-        <v>359.5132882728955</v>
+        <v>359.5132882728956</v>
       </c>
       <c r="G44" t="n">
-        <v>363.5780735538343</v>
+        <v>363.5780735538344</v>
       </c>
       <c r="H44" t="n">
-        <v>247.4406697807911</v>
+        <v>247.4406697807912</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,22 +4025,22 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.26036791993162</v>
+        <v>62.26036791993168</v>
       </c>
       <c r="T44" t="n">
-        <v>156.6388464244631</v>
+        <v>156.6388464244632</v>
       </c>
       <c r="U44" t="n">
-        <v>203.6339429196218</v>
+        <v>203.6339429196219</v>
       </c>
       <c r="V44" t="n">
         <v>280.389501001319</v>
       </c>
       <c r="W44" t="n">
-        <v>301.8782112485971</v>
+        <v>301.8782112485972</v>
       </c>
       <c r="X44" t="n">
-        <v>322.3683432096531</v>
+        <v>322.3683432096532</v>
       </c>
       <c r="Y44" t="n">
         <v>338.8751811872377</v>
@@ -4135,25 +4135,25 @@
         <v>132.4692227131214</v>
       </c>
       <c r="C46" t="n">
-        <v>119.8840636298119</v>
+        <v>119.884063629812</v>
       </c>
       <c r="D46" t="n">
-        <v>101.2527155493964</v>
+        <v>101.2527155493965</v>
       </c>
       <c r="E46" t="n">
-        <v>99.07120517775323</v>
+        <v>99.0712051777533</v>
       </c>
       <c r="F46" t="n">
-        <v>98.0582905541153</v>
+        <v>98.05829055411537</v>
       </c>
       <c r="G46" t="n">
-        <v>118.6716208011081</v>
+        <v>118.6716208011082</v>
       </c>
       <c r="H46" t="n">
-        <v>97.46845263328797</v>
+        <v>97.46845263328804</v>
       </c>
       <c r="I46" t="n">
-        <v>49.24738654141743</v>
+        <v>49.24738654141751</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95473405478491</v>
+        <v>41.95473405478499</v>
       </c>
       <c r="S46" t="n">
-        <v>142.5556197797837</v>
+        <v>142.5556197797838</v>
       </c>
       <c r="T46" t="n">
-        <v>172.2228091266355</v>
+        <v>172.2228091266356</v>
       </c>
       <c r="U46" t="n">
-        <v>238.8495481919367</v>
+        <v>238.8495481919368</v>
       </c>
       <c r="V46" t="n">
         <v>204.7748858550121</v>
@@ -4198,10 +4198,10 @@
         <v>239.1602408677751</v>
       </c>
       <c r="X46" t="n">
-        <v>178.3468979202212</v>
+        <v>178.3468979202213</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.2218958832788</v>
+        <v>171.2218958832789</v>
       </c>
     </row>
   </sheetData>
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2345.662464805672</v>
+        <v>1538.080971955922</v>
       </c>
       <c r="C11" t="n">
-        <v>1976.69994786526</v>
+        <v>1169.118455015511</v>
       </c>
       <c r="D11" t="n">
-        <v>1618.43424925851</v>
+        <v>1169.118455015511</v>
       </c>
       <c r="E11" t="n">
-        <v>1232.645996660265</v>
+        <v>1169.118455015511</v>
       </c>
       <c r="F11" t="n">
-        <v>821.6600918706579</v>
+        <v>758.1325502259033</v>
       </c>
       <c r="G11" t="n">
-        <v>406.5683433629305</v>
+        <v>406.5683433629306</v>
       </c>
       <c r="H11" t="n">
         <v>108.7871037168628</v>
@@ -5042,10 +5042,10 @@
         <v>253.3200072863874</v>
       </c>
       <c r="K11" t="n">
-        <v>584.733409115338</v>
+        <v>584.7334091153384</v>
       </c>
       <c r="L11" t="n">
-        <v>1032.78280151972</v>
+        <v>1032.782801519721</v>
       </c>
       <c r="M11" t="n">
         <v>1562.99351788926</v>
@@ -5057,10 +5057,10 @@
         <v>2606.183027849554</v>
       </c>
       <c r="P11" t="n">
-        <v>2998.237491994244</v>
+        <v>2998.237491994245</v>
       </c>
       <c r="Q11" t="n">
-        <v>3244.481320461456</v>
+        <v>3244.481320461457</v>
       </c>
       <c r="R11" t="n">
         <v>3302.310260646929</v>
@@ -5069,22 +5069,22 @@
         <v>3191.579830961326</v>
       </c>
       <c r="T11" t="n">
-        <v>2985.517604806498</v>
+        <v>2985.517604806499</v>
       </c>
       <c r="U11" t="n">
-        <v>2731.985584212116</v>
+        <v>2985.517604806499</v>
       </c>
       <c r="V11" t="n">
-        <v>2731.985584212116</v>
+        <v>2654.454717462928</v>
       </c>
       <c r="W11" t="n">
-        <v>2731.985584212116</v>
+        <v>2301.686062192814</v>
       </c>
       <c r="X11" t="n">
-        <v>2358.519825951037</v>
+        <v>1928.220303931734</v>
       </c>
       <c r="Y11" t="n">
-        <v>2358.519825951037</v>
+        <v>1538.080971955922</v>
       </c>
     </row>
     <row r="12">
@@ -5173,16 +5173,16 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>777.4880726842255</v>
+        <v>688.8074408775246</v>
       </c>
       <c r="C13" t="n">
-        <v>608.5518897563186</v>
+        <v>519.8712579496178</v>
       </c>
       <c r="D13" t="n">
-        <v>458.4352503439828</v>
+        <v>369.754618537282</v>
       </c>
       <c r="E13" t="n">
-        <v>310.5221567615897</v>
+        <v>310.5221567615899</v>
       </c>
       <c r="F13" t="n">
         <v>163.6322092636794</v>
@@ -5206,7 +5206,7 @@
         <v>628.8688700076552</v>
       </c>
       <c r="M13" t="n">
-        <v>971.6959613263095</v>
+        <v>971.6959613263097</v>
       </c>
       <c r="N13" t="n">
         <v>1311.806007091485</v>
@@ -5221,28 +5221,28 @@
         <v>1918.417599675513</v>
       </c>
       <c r="R13" t="n">
-        <v>1918.417599675513</v>
+        <v>1828.197911267835</v>
       </c>
       <c r="S13" t="n">
-        <v>1726.580854979957</v>
+        <v>1636.36116657228</v>
       </c>
       <c r="T13" t="n">
-        <v>1537.657046602691</v>
+        <v>1414.557563950612</v>
       </c>
       <c r="U13" t="n">
-        <v>1248.553707551426</v>
+        <v>1414.557563950612</v>
       </c>
       <c r="V13" t="n">
-        <v>1248.553707551426</v>
+        <v>1159.873075744725</v>
       </c>
       <c r="W13" t="n">
-        <v>959.1365375144652</v>
+        <v>870.4559057077644</v>
       </c>
       <c r="X13" t="n">
-        <v>959.1365375144652</v>
+        <v>870.4559057077644</v>
       </c>
       <c r="Y13" t="n">
-        <v>959.1365375144652</v>
+        <v>870.4559057077644</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2001.402137689177</v>
+        <v>2316.926937792003</v>
       </c>
       <c r="C14" t="n">
-        <v>1632.439620748765</v>
+        <v>1947.964420851591</v>
       </c>
       <c r="D14" t="n">
-        <v>1632.439620748765</v>
+        <v>1589.698722244841</v>
       </c>
       <c r="E14" t="n">
-        <v>1246.651368150521</v>
+        <v>1203.910469646596</v>
       </c>
       <c r="F14" t="n">
-        <v>835.665463360913</v>
+        <v>792.9245648569888</v>
       </c>
       <c r="G14" t="n">
-        <v>420.5737148531855</v>
+        <v>377.8328163492613</v>
       </c>
       <c r="H14" t="n">
-        <v>122.7924752071178</v>
+        <v>80.05157670319363</v>
       </c>
       <c r="I14" t="n">
-        <v>80.05157670319358</v>
+        <v>80.05157670319363</v>
       </c>
       <c r="J14" t="n">
-        <v>359.7567642818112</v>
+        <v>434.7310277969952</v>
       </c>
       <c r="K14" t="n">
-        <v>691.1701661107618</v>
+        <v>766.1444296259458</v>
       </c>
       <c r="L14" t="n">
-        <v>1139.219558515144</v>
+        <v>1214.193822030328</v>
       </c>
       <c r="M14" t="n">
-        <v>1669.430274884684</v>
+        <v>1744.404538399868</v>
       </c>
       <c r="N14" t="n">
-        <v>2212.834163342153</v>
+        <v>2287.808426857337</v>
       </c>
       <c r="O14" t="n">
-        <v>2712.619784844977</v>
+        <v>2787.594048360161</v>
       </c>
       <c r="P14" t="n">
-        <v>3423.254970079436</v>
+        <v>3423.254970079439</v>
       </c>
       <c r="Q14" t="n">
-        <v>3879.690639299953</v>
+        <v>3879.690639299956</v>
       </c>
       <c r="R14" t="n">
-        <v>4002.578835159679</v>
+        <v>4002.578835159682</v>
       </c>
       <c r="S14" t="n">
-        <v>3891.848405474075</v>
+        <v>4002.578835159682</v>
       </c>
       <c r="T14" t="n">
-        <v>3685.786179319248</v>
+        <v>3796.516609004854</v>
       </c>
       <c r="U14" t="n">
-        <v>3432.254158724866</v>
+        <v>3542.984588410472</v>
       </c>
       <c r="V14" t="n">
-        <v>3101.191271381295</v>
+        <v>3211.921701066902</v>
       </c>
       <c r="W14" t="n">
-        <v>2761.467736014379</v>
+        <v>3211.921701066902</v>
       </c>
       <c r="X14" t="n">
-        <v>2388.001977753299</v>
+        <v>2838.455942805822</v>
       </c>
       <c r="Y14" t="n">
-        <v>2388.001977753299</v>
+        <v>2703.526777856125</v>
       </c>
     </row>
     <row r="15">
@@ -5340,43 +5340,43 @@
         <v>621.9334029404015</v>
       </c>
       <c r="E15" t="n">
-        <v>462.6959479349459</v>
+        <v>462.695947934946</v>
       </c>
       <c r="F15" t="n">
-        <v>316.1613899618309</v>
+        <v>316.161389961831</v>
       </c>
       <c r="G15" t="n">
         <v>179.787964265442</v>
       </c>
       <c r="H15" t="n">
-        <v>89.18634703105761</v>
+        <v>89.18634703105766</v>
       </c>
       <c r="I15" t="n">
-        <v>80.05157670319358</v>
+        <v>80.05157670319363</v>
       </c>
       <c r="J15" t="n">
-        <v>172.7727233071651</v>
+        <v>172.7727233071652</v>
       </c>
       <c r="K15" t="n">
         <v>409.4027559852219</v>
       </c>
       <c r="L15" t="n">
-        <v>779.8468355975439</v>
+        <v>773.9035780358104</v>
       </c>
       <c r="M15" t="n">
-        <v>1224.558970709766</v>
+        <v>1218.615713148033</v>
       </c>
       <c r="N15" t="n">
-        <v>1695.449957671899</v>
+        <v>1689.506700110165</v>
       </c>
       <c r="O15" t="n">
-        <v>2104.003419521973</v>
+        <v>2098.060161960239</v>
       </c>
       <c r="P15" t="n">
-        <v>2412.570525122825</v>
+        <v>2406.627267561091</v>
       </c>
       <c r="Q15" t="n">
-        <v>2568.920267139094</v>
+        <v>2562.977009577361</v>
       </c>
       <c r="R15" t="n">
         <v>2568.920267139094</v>
@@ -5410,40 +5410,40 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>855.4711433925388</v>
+        <v>521.1487694017839</v>
       </c>
       <c r="C16" t="n">
-        <v>686.5349604646318</v>
+        <v>521.1487694017839</v>
       </c>
       <c r="D16" t="n">
-        <v>536.4183210522961</v>
+        <v>521.1487694017839</v>
       </c>
       <c r="E16" t="n">
-        <v>388.5052274699025</v>
+        <v>373.2356758193907</v>
       </c>
       <c r="F16" t="n">
-        <v>388.5052274699025</v>
+        <v>226.3457283214804</v>
       </c>
       <c r="G16" t="n">
-        <v>220.793734267959</v>
+        <v>226.3457283214804</v>
       </c>
       <c r="H16" t="n">
-        <v>80.05157670319358</v>
+        <v>80.05157670319363</v>
       </c>
       <c r="I16" t="n">
-        <v>80.05157670319358</v>
+        <v>80.05157670319363</v>
       </c>
       <c r="J16" t="n">
-        <v>124.5743683774957</v>
+        <v>124.5743683774958</v>
       </c>
       <c r="K16" t="n">
-        <v>327.5758286731311</v>
+        <v>327.5758286731312</v>
       </c>
       <c r="L16" t="n">
-        <v>642.8742414979102</v>
+        <v>642.8742414979104</v>
       </c>
       <c r="M16" t="n">
-        <v>985.7013328165644</v>
+        <v>985.7013328165648</v>
       </c>
       <c r="N16" t="n">
         <v>1325.81137858174</v>
@@ -5458,28 +5458,28 @@
         <v>1932.422971165768</v>
       </c>
       <c r="R16" t="n">
-        <v>1932.422971165768</v>
+        <v>1842.20328275809</v>
       </c>
       <c r="S16" t="n">
-        <v>1740.586226470213</v>
+        <v>1650.366538062535</v>
       </c>
       <c r="T16" t="n">
-        <v>1740.586226470213</v>
+        <v>1428.562935440868</v>
       </c>
       <c r="U16" t="n">
-        <v>1740.586226470213</v>
+        <v>1428.562935440868</v>
       </c>
       <c r="V16" t="n">
-        <v>1485.901738264326</v>
+        <v>1173.878447234981</v>
       </c>
       <c r="W16" t="n">
-        <v>1485.901738264326</v>
+        <v>884.4612771980201</v>
       </c>
       <c r="X16" t="n">
-        <v>1257.912187366309</v>
+        <v>656.4717263000027</v>
       </c>
       <c r="Y16" t="n">
-        <v>1037.119608222778</v>
+        <v>656.4717263000027</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1980.947039093529</v>
+        <v>2029.879922829482</v>
       </c>
       <c r="C17" t="n">
-        <v>1659.825691313537</v>
+        <v>1708.758575049491</v>
       </c>
       <c r="D17" t="n">
-        <v>1349.401161867207</v>
+        <v>1398.33404560316</v>
       </c>
       <c r="E17" t="n">
-        <v>1011.454078429383</v>
+        <v>1060.386962165336</v>
       </c>
       <c r="F17" t="n">
-        <v>648.3093428001953</v>
+        <v>697.2422265361488</v>
       </c>
       <c r="G17" t="n">
-        <v>329.9916471888412</v>
+        <v>329.9916471888413</v>
       </c>
       <c r="H17" t="n">
-        <v>80.05157670319358</v>
+        <v>80.05157670319363</v>
       </c>
       <c r="I17" t="n">
-        <v>80.05157670319358</v>
+        <v>80.05157670319363</v>
       </c>
       <c r="J17" t="n">
-        <v>267.3253787766421</v>
+        <v>434.7310277969952</v>
       </c>
       <c r="K17" t="n">
-        <v>598.7387806055926</v>
+        <v>766.1444296259458</v>
       </c>
       <c r="L17" t="n">
-        <v>1460.272775414921</v>
+        <v>1214.193822030328</v>
       </c>
       <c r="M17" t="n">
-        <v>1990.48349178446</v>
+        <v>1744.404538399868</v>
       </c>
       <c r="N17" t="n">
-        <v>2596.474140106173</v>
+        <v>2287.808426857337</v>
       </c>
       <c r="O17" t="n">
-        <v>3096.259761608997</v>
+        <v>2787.594048360161</v>
       </c>
       <c r="P17" t="n">
-        <v>3488.314225753688</v>
+        <v>3498.22923359462</v>
       </c>
       <c r="Q17" t="n">
-        <v>3944.749894974206</v>
+        <v>3879.690639299956</v>
       </c>
       <c r="R17" t="n">
-        <v>4002.578835159679</v>
+        <v>4002.578835159682</v>
       </c>
       <c r="S17" t="n">
-        <v>3939.689574634495</v>
+        <v>3939.689574634498</v>
       </c>
       <c r="T17" t="n">
-        <v>3781.468517640088</v>
+        <v>3781.468517640091</v>
       </c>
       <c r="U17" t="n">
-        <v>3575.777666206127</v>
+        <v>3575.777666206129</v>
       </c>
       <c r="V17" t="n">
-        <v>3292.555948022976</v>
+        <v>3341.48883175893</v>
       </c>
       <c r="W17" t="n">
-        <v>2987.628461913282</v>
+        <v>3036.561345649236</v>
       </c>
       <c r="X17" t="n">
-        <v>2662.003872812622</v>
+        <v>2710.936756548576</v>
       </c>
       <c r="Y17" t="n">
-        <v>2319.705709997231</v>
+        <v>2368.638593733184</v>
       </c>
     </row>
     <row r="18">
@@ -5577,43 +5577,43 @@
         <v>621.9334029404015</v>
       </c>
       <c r="E18" t="n">
-        <v>462.6959479349459</v>
+        <v>462.695947934946</v>
       </c>
       <c r="F18" t="n">
-        <v>316.1613899618309</v>
+        <v>316.161389961831</v>
       </c>
       <c r="G18" t="n">
         <v>179.787964265442</v>
       </c>
       <c r="H18" t="n">
-        <v>89.18634703105761</v>
+        <v>89.18634703105766</v>
       </c>
       <c r="I18" t="n">
-        <v>80.05157670319358</v>
+        <v>80.05157670319363</v>
       </c>
       <c r="J18" t="n">
-        <v>178.7159808688987</v>
+        <v>172.7727233071652</v>
       </c>
       <c r="K18" t="n">
-        <v>415.3460135469554</v>
+        <v>409.4027559852219</v>
       </c>
       <c r="L18" t="n">
-        <v>779.8468355975439</v>
+        <v>773.9035780358104</v>
       </c>
       <c r="M18" t="n">
-        <v>1224.558970709766</v>
+        <v>1218.615713148033</v>
       </c>
       <c r="N18" t="n">
-        <v>1695.449957671899</v>
+        <v>1689.506700110165</v>
       </c>
       <c r="O18" t="n">
-        <v>2104.003419521973</v>
+        <v>2098.060161960239</v>
       </c>
       <c r="P18" t="n">
-        <v>2412.570525122825</v>
+        <v>2406.627267561091</v>
       </c>
       <c r="Q18" t="n">
-        <v>2568.920267139094</v>
+        <v>2562.977009577361</v>
       </c>
       <c r="R18" t="n">
         <v>2568.920267139094</v>
@@ -5668,7 +5668,7 @@
         <v>129.7964115935143</v>
       </c>
       <c r="I19" t="n">
-        <v>80.05157670319358</v>
+        <v>80.05157670319363</v>
       </c>
       <c r="J19" t="n">
         <v>171.4634982716235</v>
@@ -5683,7 +5683,7 @@
         <v>1173.257852393076</v>
       </c>
       <c r="N19" t="n">
-        <v>1560.257028052379</v>
+        <v>1560.25702805238</v>
       </c>
       <c r="O19" t="n">
         <v>1905.276538102242</v>
@@ -5738,49 +5738,49 @@
         <v>1060.386962165336</v>
       </c>
       <c r="F20" t="n">
-        <v>697.2422265361487</v>
+        <v>697.2422265361486</v>
       </c>
       <c r="G20" t="n">
         <v>329.9916471888412</v>
       </c>
       <c r="H20" t="n">
-        <v>80.05157670319358</v>
+        <v>80.05157670319363</v>
       </c>
       <c r="I20" t="n">
-        <v>80.05157670319358</v>
+        <v>80.05157670319363</v>
       </c>
       <c r="J20" t="n">
         <v>267.3253787766421</v>
       </c>
       <c r="K20" t="n">
-        <v>598.7387806055926</v>
+        <v>806.4581255488918</v>
       </c>
       <c r="L20" t="n">
-        <v>1046.788173009975</v>
+        <v>1667.99212035822</v>
       </c>
       <c r="M20" t="n">
-        <v>1576.998889379514</v>
+        <v>2198.202836727759</v>
       </c>
       <c r="N20" t="n">
-        <v>2553.376233004848</v>
+        <v>2741.606725185229</v>
       </c>
       <c r="O20" t="n">
-        <v>3053.161854507672</v>
+        <v>3241.392346688053</v>
       </c>
       <c r="P20" t="n">
-        <v>3698.506066506994</v>
+        <v>3633.446810832744</v>
       </c>
       <c r="Q20" t="n">
-        <v>3944.749894974206</v>
+        <v>3879.690639299956</v>
       </c>
       <c r="R20" t="n">
-        <v>4002.578835159679</v>
+        <v>4002.578835159682</v>
       </c>
       <c r="S20" t="n">
-        <v>3939.689574634495</v>
+        <v>3988.622458370449</v>
       </c>
       <c r="T20" t="n">
-        <v>3781.468517640088</v>
+        <v>3830.401401376041</v>
       </c>
       <c r="U20" t="n">
         <v>3624.71054994208</v>
@@ -5814,22 +5814,22 @@
         <v>621.9334029404015</v>
       </c>
       <c r="E21" t="n">
-        <v>462.6959479349459</v>
+        <v>462.695947934946</v>
       </c>
       <c r="F21" t="n">
-        <v>316.1613899618309</v>
+        <v>316.161389961831</v>
       </c>
       <c r="G21" t="n">
         <v>179.787964265442</v>
       </c>
       <c r="H21" t="n">
-        <v>89.18634703105761</v>
+        <v>89.18634703105766</v>
       </c>
       <c r="I21" t="n">
-        <v>80.05157670319358</v>
+        <v>80.05157670319363</v>
       </c>
       <c r="J21" t="n">
-        <v>172.7727233071651</v>
+        <v>172.7727233071652</v>
       </c>
       <c r="K21" t="n">
         <v>409.4027559852219</v>
@@ -5844,10 +5844,10 @@
         <v>1689.506700110165</v>
       </c>
       <c r="O21" t="n">
-        <v>2104.003419521973</v>
+        <v>2098.060161960239</v>
       </c>
       <c r="P21" t="n">
-        <v>2412.570525122825</v>
+        <v>2406.627267561091</v>
       </c>
       <c r="Q21" t="n">
         <v>2568.920267139094</v>
@@ -5887,31 +5887,31 @@
         <v>770.6109048717701</v>
       </c>
       <c r="C22" t="n">
-        <v>649.5158911042832</v>
+        <v>649.5158911042834</v>
       </c>
       <c r="D22" t="n">
-        <v>547.2404208523676</v>
+        <v>547.2404208523677</v>
       </c>
       <c r="E22" t="n">
-        <v>447.1684964303946</v>
+        <v>447.1684964303947</v>
       </c>
       <c r="F22" t="n">
-        <v>348.1197180929043</v>
+        <v>348.1197180929045</v>
       </c>
       <c r="G22" t="n">
-        <v>228.2493940513809</v>
+        <v>228.249394051381</v>
       </c>
       <c r="H22" t="n">
-        <v>129.7964115935142</v>
+        <v>129.7964115935143</v>
       </c>
       <c r="I22" t="n">
-        <v>80.05157670319358</v>
+        <v>80.05157670319363</v>
       </c>
       <c r="J22" t="n">
-        <v>171.4634982716236</v>
+        <v>171.4634982716235</v>
       </c>
       <c r="K22" t="n">
-        <v>421.3540884613867</v>
+        <v>421.3540884613869</v>
       </c>
       <c r="L22" t="n">
         <v>783.5416311802937</v>
@@ -5944,7 +5944,7 @@
         <v>1705.937312184304</v>
       </c>
       <c r="V22" t="n">
-        <v>1499.093993138837</v>
+        <v>1499.093993138838</v>
       </c>
       <c r="W22" t="n">
         <v>1257.517992262297</v>
@@ -5969,13 +5969,13 @@
         <v>1709.757205329817</v>
       </c>
       <c r="D23" t="n">
-        <v>1399.332675883486</v>
+        <v>1399.332675883487</v>
       </c>
       <c r="E23" t="n">
         <v>1061.385592445662</v>
       </c>
       <c r="F23" t="n">
-        <v>698.2408568164742</v>
+        <v>698.2408568164751</v>
       </c>
       <c r="G23" t="n">
         <v>330.9902774691668</v>
@@ -5990,10 +5990,10 @@
         <v>435.7296580773207</v>
       </c>
       <c r="K23" t="n">
-        <v>767.1430599062713</v>
+        <v>892.8820625199965</v>
       </c>
       <c r="L23" t="n">
-        <v>1215.192452310654</v>
+        <v>1340.931454924379</v>
       </c>
       <c r="M23" t="n">
         <v>1871.142171293918</v>
@@ -6029,7 +6029,7 @@
         <v>3037.559975929561</v>
       </c>
       <c r="X23" t="n">
-        <v>2711.935386828901</v>
+        <v>2711.935386828902</v>
       </c>
       <c r="Y23" t="n">
         <v>2369.63722401351</v>
@@ -6084,7 +6084,7 @@
         <v>2099.058792240565</v>
       </c>
       <c r="P24" t="n">
-        <v>2413.56915540315</v>
+        <v>2407.625897841417</v>
       </c>
       <c r="Q24" t="n">
         <v>2569.91889741942</v>
@@ -6154,19 +6154,19 @@
         <v>784.5402614606189</v>
       </c>
       <c r="M25" t="n">
-        <v>1174.256482673402</v>
+        <v>1174.256482673401</v>
       </c>
       <c r="N25" t="n">
         <v>1561.255658332705</v>
       </c>
       <c r="O25" t="n">
-        <v>1906.275168382568</v>
+        <v>1906.275168382567</v>
       </c>
       <c r="P25" t="n">
-        <v>2184.745659885729</v>
+        <v>2184.745659885728</v>
       </c>
       <c r="Q25" t="n">
-        <v>2308.534640599116</v>
+        <v>2308.534640599115</v>
       </c>
       <c r="R25" t="n">
         <v>2266.156121351858</v>
@@ -6203,7 +6203,7 @@
         <v>2030.878553109808</v>
       </c>
       <c r="C26" t="n">
-        <v>1709.757205329817</v>
+        <v>1709.757205329816</v>
       </c>
       <c r="D26" t="n">
         <v>1399.332675883486</v>
@@ -6212,64 +6212,64 @@
         <v>1061.385592445662</v>
       </c>
       <c r="F26" t="n">
-        <v>698.2408568164747</v>
+        <v>698.2408568164742</v>
       </c>
       <c r="G26" t="n">
         <v>330.9902774691668</v>
       </c>
       <c r="H26" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J26" t="n">
-        <v>435.7296580773207</v>
+        <v>268.3240090569677</v>
       </c>
       <c r="K26" t="n">
-        <v>767.1430599062713</v>
+        <v>599.7374108859183</v>
       </c>
       <c r="L26" t="n">
-        <v>1215.192452310654</v>
+        <v>1047.786803290301</v>
       </c>
       <c r="M26" t="n">
-        <v>1745.403168680193</v>
+        <v>1880.220151250424</v>
       </c>
       <c r="N26" t="n">
-        <v>2288.807057137662</v>
+        <v>2856.597494875757</v>
       </c>
       <c r="O26" t="n">
-        <v>2827.610554535509</v>
+        <v>3356.383116378582</v>
       </c>
       <c r="P26" t="n">
-        <v>3538.245739769968</v>
+        <v>3748.437580523273</v>
       </c>
       <c r="Q26" t="n">
-        <v>3994.681408990485</v>
+        <v>3994.681408990484</v>
       </c>
       <c r="R26" t="n">
-        <v>4052.510349175958</v>
+        <v>4052.510349175957</v>
       </c>
       <c r="S26" t="n">
-        <v>3989.621088650775</v>
+        <v>3989.621088650774</v>
       </c>
       <c r="T26" t="n">
         <v>3831.400031656367</v>
       </c>
       <c r="U26" t="n">
-        <v>3625.709180222406</v>
+        <v>3625.709180222405</v>
       </c>
       <c r="V26" t="n">
-        <v>3342.487462039256</v>
+        <v>3342.487462039254</v>
       </c>
       <c r="W26" t="n">
         <v>3037.559975929561</v>
       </c>
       <c r="X26" t="n">
-        <v>2711.935386828902</v>
+        <v>2711.935386828901</v>
       </c>
       <c r="Y26" t="n">
-        <v>2369.63722401351</v>
+        <v>2369.637224013509</v>
       </c>
     </row>
     <row r="27">
@@ -6297,10 +6297,10 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H27" t="n">
-        <v>90.18497731138319</v>
+        <v>90.18497731138318</v>
       </c>
       <c r="I27" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J27" t="n">
         <v>173.7713535874907</v>
@@ -6309,16 +6309,16 @@
         <v>410.4013862655474</v>
       </c>
       <c r="L27" t="n">
-        <v>780.8454658778697</v>
+        <v>774.9022083161359</v>
       </c>
       <c r="M27" t="n">
-        <v>1225.557600990092</v>
+        <v>1219.614343428358</v>
       </c>
       <c r="N27" t="n">
-        <v>1696.448587952225</v>
+        <v>1690.505330390491</v>
       </c>
       <c r="O27" t="n">
-        <v>2105.002049802299</v>
+        <v>2099.058792240565</v>
       </c>
       <c r="P27" t="n">
         <v>2413.56915540315</v>
@@ -6358,67 +6358,67 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>771.6095351520955</v>
+        <v>771.6095351520951</v>
       </c>
       <c r="C28" t="n">
-        <v>650.5145213846087</v>
+        <v>650.5145213846082</v>
       </c>
       <c r="D28" t="n">
-        <v>548.239051132693</v>
+        <v>548.2390511326926</v>
       </c>
       <c r="E28" t="n">
-        <v>448.16712671072</v>
+        <v>448.1671267107196</v>
       </c>
       <c r="F28" t="n">
-        <v>349.1183483732298</v>
+        <v>349.1183483732293</v>
       </c>
       <c r="G28" t="n">
-        <v>229.2480243317063</v>
+        <v>229.2480243317059</v>
       </c>
       <c r="H28" t="n">
-        <v>130.7950418738399</v>
+        <v>130.7950418738394</v>
       </c>
       <c r="I28" t="n">
-        <v>81.05020698351916</v>
+        <v>81.05020698351915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.4621285519489</v>
+        <v>172.462128551949</v>
       </c>
       <c r="K28" t="n">
-        <v>422.352718741712</v>
+        <v>422.3527187417121</v>
       </c>
       <c r="L28" t="n">
-        <v>784.5402614606194</v>
+        <v>784.5402614606188</v>
       </c>
       <c r="M28" t="n">
         <v>1174.256482673401</v>
       </c>
       <c r="N28" t="n">
-        <v>1561.255658332705</v>
+        <v>1561.255658332704</v>
       </c>
       <c r="O28" t="n">
         <v>1906.275168382567</v>
       </c>
       <c r="P28" t="n">
-        <v>2184.745659885729</v>
+        <v>2184.745659885728</v>
       </c>
       <c r="Q28" t="n">
-        <v>2308.534640599116</v>
+        <v>2308.534640599115</v>
       </c>
       <c r="R28" t="n">
         <v>2266.156121351858</v>
       </c>
       <c r="S28" t="n">
-        <v>2122.160545816723</v>
+        <v>2122.160545816722</v>
       </c>
       <c r="T28" t="n">
-        <v>1948.198112355475</v>
+        <v>1948.198112355474</v>
       </c>
       <c r="U28" t="n">
-        <v>1706.93594246463</v>
+        <v>1706.935942464629</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.092623419163</v>
+        <v>1500.092623419162</v>
       </c>
       <c r="W28" t="n">
         <v>1258.516622542622</v>
@@ -6427,7 +6427,7 @@
         <v>1078.368240805025</v>
       </c>
       <c r="Y28" t="n">
-        <v>905.4168308219151</v>
+        <v>905.4168308219147</v>
       </c>
     </row>
     <row r="29">
@@ -6437,19 +6437,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2030.878553109809</v>
+        <v>2030.878553109808</v>
       </c>
       <c r="C29" t="n">
         <v>1709.757205329817</v>
       </c>
       <c r="D29" t="n">
-        <v>1399.332675883487</v>
+        <v>1399.332675883486</v>
       </c>
       <c r="E29" t="n">
-        <v>1061.385592445663</v>
+        <v>1061.385592445662</v>
       </c>
       <c r="F29" t="n">
-        <v>698.2408568164756</v>
+        <v>698.2408568164745</v>
       </c>
       <c r="G29" t="n">
         <v>330.9902774691668</v>
@@ -6461,25 +6461,25 @@
         <v>81.05020698351916</v>
       </c>
       <c r="J29" t="n">
-        <v>268.3240090569677</v>
+        <v>435.7296580773207</v>
       </c>
       <c r="K29" t="n">
-        <v>599.7374108859183</v>
+        <v>1088.047018351724</v>
       </c>
       <c r="L29" t="n">
-        <v>1350.009434880885</v>
+        <v>1536.096410756107</v>
       </c>
       <c r="M29" t="n">
-        <v>1880.220151250425</v>
+        <v>2066.307127125646</v>
       </c>
       <c r="N29" t="n">
-        <v>2856.597494875758</v>
+        <v>2609.711015583115</v>
       </c>
       <c r="O29" t="n">
-        <v>3356.383116378583</v>
+        <v>3109.49663708594</v>
       </c>
       <c r="P29" t="n">
-        <v>3748.437580523273</v>
+        <v>3538.245739769967</v>
       </c>
       <c r="Q29" t="n">
         <v>3994.681408990485</v>
@@ -6488,7 +6488,7 @@
         <v>4052.510349175958</v>
       </c>
       <c r="S29" t="n">
-        <v>3989.621088650775</v>
+        <v>3989.621088650774</v>
       </c>
       <c r="T29" t="n">
         <v>3831.400031656367</v>
@@ -6497,16 +6497,16 @@
         <v>3625.709180222406</v>
       </c>
       <c r="V29" t="n">
-        <v>3342.487462039256</v>
+        <v>3342.487462039255</v>
       </c>
       <c r="W29" t="n">
-        <v>3037.559975929562</v>
+        <v>3037.559975929561</v>
       </c>
       <c r="X29" t="n">
         <v>2711.935386828902</v>
       </c>
       <c r="Y29" t="n">
-        <v>2369.637224013511</v>
+        <v>2369.63722401351</v>
       </c>
     </row>
     <row r="30">
@@ -6555,7 +6555,7 @@
         <v>1690.505330390491</v>
       </c>
       <c r="O30" t="n">
-        <v>2105.002049802299</v>
+        <v>2099.058792240565</v>
       </c>
       <c r="P30" t="n">
         <v>2413.56915540315</v>
@@ -6595,16 +6595,16 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>771.6095351520963</v>
+        <v>771.6095351520947</v>
       </c>
       <c r="C31" t="n">
-        <v>650.5145213846087</v>
+        <v>650.514521384608</v>
       </c>
       <c r="D31" t="n">
-        <v>548.239051132693</v>
+        <v>548.2390511326923</v>
       </c>
       <c r="E31" t="n">
-        <v>448.16712671072</v>
+        <v>448.1671267107202</v>
       </c>
       <c r="F31" t="n">
         <v>349.1183483732299</v>
@@ -6619,13 +6619,13 @@
         <v>81.05020698351916</v>
       </c>
       <c r="J31" t="n">
-        <v>172.4621285519489</v>
+        <v>172.4621285519491</v>
       </c>
       <c r="K31" t="n">
-        <v>422.3527187417121</v>
+        <v>422.3527187417122</v>
       </c>
       <c r="L31" t="n">
-        <v>784.5402614606189</v>
+        <v>784.540261460619</v>
       </c>
       <c r="M31" t="n">
         <v>1174.256482673401</v>
@@ -6640,7 +6640,7 @@
         <v>2184.745659885728</v>
       </c>
       <c r="Q31" t="n">
-        <v>2308.534640599116</v>
+        <v>2308.534640599115</v>
       </c>
       <c r="R31" t="n">
         <v>2266.156121351858</v>
@@ -6652,19 +6652,19 @@
         <v>1948.198112355475</v>
       </c>
       <c r="U31" t="n">
-        <v>1706.93594246463</v>
+        <v>1706.935942464629</v>
       </c>
       <c r="V31" t="n">
-        <v>1500.092623419163</v>
+        <v>1500.092623419162</v>
       </c>
       <c r="W31" t="n">
         <v>1258.516622542622</v>
       </c>
       <c r="X31" t="n">
-        <v>1078.368240805026</v>
+        <v>1078.368240805024</v>
       </c>
       <c r="Y31" t="n">
-        <v>905.4168308219159</v>
+        <v>905.4168308219143</v>
       </c>
     </row>
     <row r="32">
@@ -6689,40 +6689,40 @@
         <v>698.2408568164742</v>
       </c>
       <c r="G32" t="n">
-        <v>330.9902774691667</v>
+        <v>330.9902774691668</v>
       </c>
       <c r="H32" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="I32" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J32" t="n">
-        <v>268.3240090569677</v>
+        <v>435.7296580773207</v>
       </c>
       <c r="K32" t="n">
-        <v>599.7374108859183</v>
+        <v>767.1430599062713</v>
       </c>
       <c r="L32" t="n">
-        <v>1047.786803290301</v>
+        <v>1215.192452310654</v>
       </c>
       <c r="M32" t="n">
-        <v>2023.015917817744</v>
+        <v>1745.403168680193</v>
       </c>
       <c r="N32" t="n">
-        <v>2856.597494875757</v>
+        <v>2288.807057137662</v>
       </c>
       <c r="O32" t="n">
-        <v>3356.383116378581</v>
+        <v>2788.592678640487</v>
       </c>
       <c r="P32" t="n">
-        <v>3748.437580523272</v>
+        <v>3473.186484095715</v>
       </c>
       <c r="Q32" t="n">
-        <v>3994.681408990484</v>
+        <v>3929.622153316232</v>
       </c>
       <c r="R32" t="n">
-        <v>4052.510349175957</v>
+        <v>4052.510349175958</v>
       </c>
       <c r="S32" t="n">
         <v>3989.621088650774</v>
@@ -6737,10 +6737,10 @@
         <v>3342.487462039254</v>
       </c>
       <c r="W32" t="n">
-        <v>3037.55997592956</v>
+        <v>3037.559975929561</v>
       </c>
       <c r="X32" t="n">
-        <v>2711.9353868289</v>
+        <v>2711.935386828901</v>
       </c>
       <c r="Y32" t="n">
         <v>2369.637224013509</v>
@@ -6771,13 +6771,13 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H33" t="n">
-        <v>90.18497731138318</v>
+        <v>90.18497731138319</v>
       </c>
       <c r="I33" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J33" t="n">
-        <v>173.7713535874907</v>
+        <v>179.7146111492245</v>
       </c>
       <c r="K33" t="n">
         <v>416.3446438272813</v>
@@ -6832,16 +6832,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>771.6095351520958</v>
+        <v>771.609535152096</v>
       </c>
       <c r="C34" t="n">
-        <v>650.514521384609</v>
+        <v>650.5145213846091</v>
       </c>
       <c r="D34" t="n">
-        <v>548.2390511326934</v>
+        <v>548.2390511326935</v>
       </c>
       <c r="E34" t="n">
-        <v>448.1671267107204</v>
+        <v>448.1671267107205</v>
       </c>
       <c r="F34" t="n">
         <v>349.1183483732302</v>
@@ -6850,31 +6850,31 @@
         <v>229.2480243317068</v>
       </c>
       <c r="H34" t="n">
-        <v>130.7950418738398</v>
+        <v>130.7950418738401</v>
       </c>
       <c r="I34" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J34" t="n">
-        <v>172.4621285519491</v>
+        <v>172.462128551949</v>
       </c>
       <c r="K34" t="n">
         <v>422.3527187417121</v>
       </c>
       <c r="L34" t="n">
-        <v>784.5402614606189</v>
+        <v>784.540261460619</v>
       </c>
       <c r="M34" t="n">
         <v>1174.256482673401</v>
       </c>
       <c r="N34" t="n">
-        <v>1561.255658332704</v>
+        <v>1561.255658332705</v>
       </c>
       <c r="O34" t="n">
         <v>1906.275168382567</v>
       </c>
       <c r="P34" t="n">
-        <v>2184.745659885728</v>
+        <v>2184.745659885729</v>
       </c>
       <c r="Q34" t="n">
         <v>2308.534640599116</v>
@@ -6895,13 +6895,13 @@
         <v>1500.092623419163</v>
       </c>
       <c r="W34" t="n">
-        <v>1258.516622542622</v>
+        <v>1258.516622542623</v>
       </c>
       <c r="X34" t="n">
-        <v>1078.368240805025</v>
+        <v>1078.368240805026</v>
       </c>
       <c r="Y34" t="n">
-        <v>905.4168308219153</v>
+        <v>905.4168308219156</v>
       </c>
     </row>
     <row r="35">
@@ -6914,19 +6914,19 @@
         <v>2030.878553109807</v>
       </c>
       <c r="C35" t="n">
-        <v>1709.757205329816</v>
+        <v>1709.757205329815</v>
       </c>
       <c r="D35" t="n">
-        <v>1399.332675883486</v>
+        <v>1399.332675883485</v>
       </c>
       <c r="E35" t="n">
-        <v>1061.385592445662</v>
+        <v>1061.385592445661</v>
       </c>
       <c r="F35" t="n">
-        <v>698.2408568164742</v>
+        <v>698.2408568164738</v>
       </c>
       <c r="G35" t="n">
-        <v>330.9902774691667</v>
+        <v>330.9902774691668</v>
       </c>
       <c r="H35" t="n">
         <v>81.05020698351915</v>
@@ -6935,40 +6935,40 @@
         <v>81.05020698351915</v>
       </c>
       <c r="J35" t="n">
-        <v>268.3240090569677</v>
+        <v>435.7296580773207</v>
       </c>
       <c r="K35" t="n">
-        <v>599.7374108859183</v>
+        <v>767.1430599062713</v>
       </c>
       <c r="L35" t="n">
-        <v>1461.271405695247</v>
+        <v>1507.73179362119</v>
       </c>
       <c r="M35" t="n">
-        <v>1991.482122064786</v>
+        <v>2037.942509990729</v>
       </c>
       <c r="N35" t="n">
-        <v>2534.886010522255</v>
+        <v>2581.346398448199</v>
       </c>
       <c r="O35" t="n">
-        <v>3034.67163202508</v>
+        <v>3081.132019951023</v>
       </c>
       <c r="P35" t="n">
-        <v>3538.245739769966</v>
+        <v>3473.186484095714</v>
       </c>
       <c r="Q35" t="n">
-        <v>3994.681408990484</v>
+        <v>3929.622153316232</v>
       </c>
       <c r="R35" t="n">
         <v>4052.510349175957</v>
       </c>
       <c r="S35" t="n">
-        <v>3989.621088650773</v>
+        <v>3989.621088650774</v>
       </c>
       <c r="T35" t="n">
-        <v>3831.400031656366</v>
+        <v>3831.400031656367</v>
       </c>
       <c r="U35" t="n">
-        <v>3625.709180222404</v>
+        <v>3625.709180222405</v>
       </c>
       <c r="V35" t="n">
         <v>3342.487462039254</v>
@@ -7029,13 +7029,13 @@
         <v>1690.505330390491</v>
       </c>
       <c r="O36" t="n">
-        <v>2105.002049802299</v>
+        <v>2099.058792240565</v>
       </c>
       <c r="P36" t="n">
-        <v>2413.56915540315</v>
+        <v>2407.625897841417</v>
       </c>
       <c r="Q36" t="n">
-        <v>2569.91889741942</v>
+        <v>2563.975639857686</v>
       </c>
       <c r="R36" t="n">
         <v>2569.91889741942</v>
@@ -7072,40 +7072,40 @@
         <v>771.6095351520953</v>
       </c>
       <c r="C37" t="n">
-        <v>650.5145213846085</v>
+        <v>650.5145213846084</v>
       </c>
       <c r="D37" t="n">
-        <v>548.239051132693</v>
+        <v>548.2390511326928</v>
       </c>
       <c r="E37" t="n">
-        <v>448.16712671072</v>
+        <v>448.1671267107198</v>
       </c>
       <c r="F37" t="n">
-        <v>349.1183483732298</v>
+        <v>349.1183483732295</v>
       </c>
       <c r="G37" t="n">
-        <v>229.2480243317065</v>
+        <v>229.2480243317061</v>
       </c>
       <c r="H37" t="n">
-        <v>130.7950418738398</v>
+        <v>130.7950418738394</v>
       </c>
       <c r="I37" t="n">
         <v>81.05020698351915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.4621285519492</v>
+        <v>172.4621285519493</v>
       </c>
       <c r="K37" t="n">
         <v>422.3527187417124</v>
       </c>
       <c r="L37" t="n">
-        <v>784.5402614606194</v>
+        <v>784.5402614606191</v>
       </c>
       <c r="M37" t="n">
         <v>1174.256482673401</v>
       </c>
       <c r="N37" t="n">
-        <v>1561.255658332705</v>
+        <v>1561.255658332704</v>
       </c>
       <c r="O37" t="n">
         <v>1906.275168382567</v>
@@ -7114,7 +7114,7 @@
         <v>2184.745659885728</v>
       </c>
       <c r="Q37" t="n">
-        <v>2308.534640599116</v>
+        <v>2308.534640599115</v>
       </c>
       <c r="R37" t="n">
         <v>2266.156121351858</v>
@@ -7123,22 +7123,22 @@
         <v>2122.160545816723</v>
       </c>
       <c r="T37" t="n">
-        <v>1948.198112355476</v>
+        <v>1948.198112355475</v>
       </c>
       <c r="U37" t="n">
         <v>1706.93594246463</v>
       </c>
       <c r="V37" t="n">
-        <v>1500.092623419164</v>
+        <v>1500.092623419163</v>
       </c>
       <c r="W37" t="n">
-        <v>1258.516622542623</v>
+        <v>1258.516622542622</v>
       </c>
       <c r="X37" t="n">
         <v>1078.368240805025</v>
       </c>
       <c r="Y37" t="n">
-        <v>905.4168308219148</v>
+        <v>905.4168308219149</v>
       </c>
     </row>
     <row r="38">
@@ -7148,7 +7148,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2030.878553109807</v>
+        <v>2030.878553109808</v>
       </c>
       <c r="C38" t="n">
         <v>1709.757205329816</v>
@@ -7166,37 +7166,37 @@
         <v>330.9902774691668</v>
       </c>
       <c r="H38" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="I38" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J38" t="n">
-        <v>268.3240090569677</v>
+        <v>435.7296580773207</v>
       </c>
       <c r="K38" t="n">
-        <v>599.7374108859183</v>
+        <v>767.1430599062713</v>
       </c>
       <c r="L38" t="n">
-        <v>1047.786803290301</v>
+        <v>1215.192452310654</v>
       </c>
       <c r="M38" t="n">
-        <v>1577.99751965984</v>
+        <v>1745.403168680193</v>
       </c>
       <c r="N38" t="n">
-        <v>2204.354218998081</v>
+        <v>2288.807057137662</v>
       </c>
       <c r="O38" t="n">
-        <v>3081.132019951023</v>
+        <v>2788.592678640487</v>
       </c>
       <c r="P38" t="n">
-        <v>3473.186484095714</v>
+        <v>3499.227863874946</v>
       </c>
       <c r="Q38" t="n">
-        <v>3929.622153316232</v>
+        <v>3955.663533095463</v>
       </c>
       <c r="R38" t="n">
-        <v>4052.510349175957</v>
+        <v>4052.510349175958</v>
       </c>
       <c r="S38" t="n">
         <v>3989.621088650774</v>
@@ -7205,19 +7205,19 @@
         <v>3831.400031656367</v>
       </c>
       <c r="U38" t="n">
-        <v>3625.709180222405</v>
+        <v>3625.709180222406</v>
       </c>
       <c r="V38" t="n">
-        <v>3342.487462039254</v>
+        <v>3342.487462039255</v>
       </c>
       <c r="W38" t="n">
-        <v>3037.55997592956</v>
+        <v>3037.559975929561</v>
       </c>
       <c r="X38" t="n">
-        <v>2711.9353868289</v>
+        <v>2711.935386828901</v>
       </c>
       <c r="Y38" t="n">
-        <v>2369.637224013509</v>
+        <v>2369.63722401351</v>
       </c>
     </row>
     <row r="39">
@@ -7245,28 +7245,28 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H39" t="n">
-        <v>90.18497731138318</v>
+        <v>90.18497731138319</v>
       </c>
       <c r="I39" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J39" t="n">
         <v>173.7713535874907</v>
       </c>
       <c r="K39" t="n">
-        <v>410.4013862655474</v>
+        <v>416.3446438272813</v>
       </c>
       <c r="L39" t="n">
-        <v>774.9022083161359</v>
+        <v>780.8454658778697</v>
       </c>
       <c r="M39" t="n">
-        <v>1219.614343428358</v>
+        <v>1225.557600990092</v>
       </c>
       <c r="N39" t="n">
-        <v>1690.505330390491</v>
+        <v>1696.448587952225</v>
       </c>
       <c r="O39" t="n">
-        <v>2099.058792240565</v>
+        <v>2105.002049802299</v>
       </c>
       <c r="P39" t="n">
         <v>2413.56915540315</v>
@@ -7306,37 +7306,37 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>771.6095351520954</v>
+        <v>771.6095351520958</v>
       </c>
       <c r="C40" t="n">
-        <v>650.5145213846087</v>
+        <v>650.5145213846089</v>
       </c>
       <c r="D40" t="n">
-        <v>548.239051132693</v>
+        <v>548.2390511326932</v>
       </c>
       <c r="E40" t="n">
-        <v>448.16712671072</v>
+        <v>448.1671267107203</v>
       </c>
       <c r="F40" t="n">
-        <v>349.1183483732298</v>
+        <v>349.11834837323</v>
       </c>
       <c r="G40" t="n">
-        <v>229.2480243317063</v>
+        <v>229.2480243317066</v>
       </c>
       <c r="H40" t="n">
-        <v>130.7950418738396</v>
+        <v>130.7950418738399</v>
       </c>
       <c r="I40" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J40" t="n">
         <v>172.462128551949</v>
       </c>
       <c r="K40" t="n">
-        <v>422.3527187417124</v>
+        <v>422.3527187417121</v>
       </c>
       <c r="L40" t="n">
-        <v>784.5402614606193</v>
+        <v>784.5402614606189</v>
       </c>
       <c r="M40" t="n">
         <v>1174.256482673401</v>
@@ -7345,13 +7345,13 @@
         <v>1561.255658332704</v>
       </c>
       <c r="O40" t="n">
-        <v>1906.275168382567</v>
+        <v>1906.275168382568</v>
       </c>
       <c r="P40" t="n">
-        <v>2184.745659885728</v>
+        <v>2184.745659885729</v>
       </c>
       <c r="Q40" t="n">
-        <v>2308.534640599115</v>
+        <v>2308.534640599116</v>
       </c>
       <c r="R40" t="n">
         <v>2266.156121351858</v>
@@ -7369,13 +7369,13 @@
         <v>1500.092623419163</v>
       </c>
       <c r="W40" t="n">
-        <v>1258.516622542622</v>
+        <v>1258.516622542623</v>
       </c>
       <c r="X40" t="n">
         <v>1078.368240805025</v>
       </c>
       <c r="Y40" t="n">
-        <v>905.416830821915</v>
+        <v>905.4168308219154</v>
       </c>
     </row>
     <row r="41">
@@ -7409,28 +7409,28 @@
         <v>81.05020698351916</v>
       </c>
       <c r="J41" t="n">
-        <v>435.7296580773207</v>
+        <v>268.3240090569677</v>
       </c>
       <c r="K41" t="n">
-        <v>767.1430599062713</v>
+        <v>599.7374108859183</v>
       </c>
       <c r="L41" t="n">
-        <v>1215.192452310654</v>
+        <v>1062.713395463287</v>
       </c>
       <c r="M41" t="n">
-        <v>2190.421566838097</v>
+        <v>2037.94250999073</v>
       </c>
       <c r="N41" t="n">
-        <v>2733.825455295566</v>
+        <v>2581.3463984482</v>
       </c>
       <c r="O41" t="n">
-        <v>3233.611076798391</v>
+        <v>3081.132019951024</v>
       </c>
       <c r="P41" t="n">
-        <v>3748.437580523273</v>
+        <v>3473.186484095715</v>
       </c>
       <c r="Q41" t="n">
-        <v>3994.681408990485</v>
+        <v>3929.622153316232</v>
       </c>
       <c r="R41" t="n">
         <v>4052.510349175958</v>
@@ -7442,7 +7442,7 @@
         <v>3831.400031656367</v>
       </c>
       <c r="U41" t="n">
-        <v>3625.709180222405</v>
+        <v>3625.709180222406</v>
       </c>
       <c r="V41" t="n">
         <v>3342.487462039255</v>
@@ -7497,16 +7497,16 @@
         <v>774.9022083161359</v>
       </c>
       <c r="M42" t="n">
-        <v>1225.557600990092</v>
+        <v>1219.614343428358</v>
       </c>
       <c r="N42" t="n">
-        <v>1696.448587952225</v>
+        <v>1690.505330390491</v>
       </c>
       <c r="O42" t="n">
-        <v>2105.002049802299</v>
+        <v>2099.058792240565</v>
       </c>
       <c r="P42" t="n">
-        <v>2413.56915540315</v>
+        <v>2407.625897841417</v>
       </c>
       <c r="Q42" t="n">
         <v>2569.91889741942</v>
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>771.6095351520955</v>
+        <v>771.6095351520958</v>
       </c>
       <c r="C43" t="n">
-        <v>650.5145213846087</v>
+        <v>650.5145213846089</v>
       </c>
       <c r="D43" t="n">
-        <v>548.239051132693</v>
+        <v>548.2390511326932</v>
       </c>
       <c r="E43" t="n">
-        <v>448.16712671072</v>
+        <v>448.1671267107203</v>
       </c>
       <c r="F43" t="n">
-        <v>349.1183483732298</v>
+        <v>349.11834837323</v>
       </c>
       <c r="G43" t="n">
-        <v>229.2480243317063</v>
+        <v>229.2480243317066</v>
       </c>
       <c r="H43" t="n">
         <v>130.7950418738399</v>
@@ -7570,10 +7570,10 @@
         <v>172.462128551949</v>
       </c>
       <c r="K43" t="n">
-        <v>422.3527187417122</v>
+        <v>422.3527187417121</v>
       </c>
       <c r="L43" t="n">
-        <v>784.540261460619</v>
+        <v>784.5402614606189</v>
       </c>
       <c r="M43" t="n">
         <v>1174.256482673401</v>
@@ -7582,10 +7582,10 @@
         <v>1561.255658332705</v>
       </c>
       <c r="O43" t="n">
-        <v>1906.275168382567</v>
+        <v>1906.275168382568</v>
       </c>
       <c r="P43" t="n">
-        <v>2184.745659885728</v>
+        <v>2184.745659885729</v>
       </c>
       <c r="Q43" t="n">
         <v>2308.534640599116</v>
@@ -7612,7 +7612,7 @@
         <v>1078.368240805025</v>
       </c>
       <c r="Y43" t="n">
-        <v>905.4168308219151</v>
+        <v>905.4168308219154</v>
       </c>
     </row>
     <row r="44">
@@ -7622,7 +7622,7 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2030.878553109807</v>
+        <v>2030.878553109808</v>
       </c>
       <c r="C44" t="n">
         <v>1709.757205329816</v>
@@ -7637,13 +7637,13 @@
         <v>698.2408568164742</v>
       </c>
       <c r="G44" t="n">
-        <v>330.9902774691667</v>
+        <v>330.9902774691668</v>
       </c>
       <c r="H44" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="I44" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J44" t="n">
         <v>435.7296580773207</v>
@@ -7664,34 +7664,34 @@
         <v>2788.592678640487</v>
       </c>
       <c r="P44" t="n">
-        <v>3473.186484095714</v>
+        <v>3473.186484095715</v>
       </c>
       <c r="Q44" t="n">
-        <v>3929.622153316231</v>
+        <v>3929.622153316232</v>
       </c>
       <c r="R44" t="n">
-        <v>4052.510349175957</v>
+        <v>4052.510349175958</v>
       </c>
       <c r="S44" t="n">
-        <v>3989.621088650773</v>
+        <v>3989.621088650775</v>
       </c>
       <c r="T44" t="n">
-        <v>3831.400031656366</v>
+        <v>3831.400031656367</v>
       </c>
       <c r="U44" t="n">
-        <v>3625.709180222405</v>
+        <v>3625.709180222406</v>
       </c>
       <c r="V44" t="n">
-        <v>3342.487462039254</v>
+        <v>3342.487462039255</v>
       </c>
       <c r="W44" t="n">
-        <v>3037.55997592956</v>
+        <v>3037.559975929561</v>
       </c>
       <c r="X44" t="n">
-        <v>2711.9353868289</v>
+        <v>2711.935386828901</v>
       </c>
       <c r="Y44" t="n">
-        <v>2369.637224013509</v>
+        <v>2369.63722401351</v>
       </c>
     </row>
     <row r="45">
@@ -7719,10 +7719,10 @@
         <v>180.7865945457676</v>
       </c>
       <c r="H45" t="n">
-        <v>90.18497731138318</v>
+        <v>90.18497731138319</v>
       </c>
       <c r="I45" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J45" t="n">
         <v>173.7713535874907</v>
@@ -7780,52 +7780,52 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>771.6095351520955</v>
+        <v>771.6095351520958</v>
       </c>
       <c r="C46" t="n">
-        <v>650.5145213846088</v>
+        <v>650.5145213846089</v>
       </c>
       <c r="D46" t="n">
-        <v>548.2390511326931</v>
+        <v>548.2390511326932</v>
       </c>
       <c r="E46" t="n">
-        <v>448.1671267107201</v>
+        <v>448.1671267107203</v>
       </c>
       <c r="F46" t="n">
-        <v>349.1183483732299</v>
+        <v>349.11834837323</v>
       </c>
       <c r="G46" t="n">
         <v>229.2480243317066</v>
       </c>
       <c r="H46" t="n">
-        <v>130.7950418738398</v>
+        <v>130.7950418738399</v>
       </c>
       <c r="I46" t="n">
-        <v>81.05020698351915</v>
+        <v>81.05020698351916</v>
       </c>
       <c r="J46" t="n">
         <v>172.462128551949</v>
       </c>
       <c r="K46" t="n">
-        <v>422.3527187417124</v>
+        <v>422.3527187417121</v>
       </c>
       <c r="L46" t="n">
-        <v>784.5402614606193</v>
+        <v>784.5402614606189</v>
       </c>
       <c r="M46" t="n">
-        <v>1174.256482673401</v>
+        <v>1174.256482673402</v>
       </c>
       <c r="N46" t="n">
         <v>1561.255658332705</v>
       </c>
       <c r="O46" t="n">
-        <v>1906.275168382567</v>
+        <v>1906.275168382568</v>
       </c>
       <c r="P46" t="n">
-        <v>2184.745659885728</v>
+        <v>2184.745659885729</v>
       </c>
       <c r="Q46" t="n">
-        <v>2308.534640599115</v>
+        <v>2308.534640599116</v>
       </c>
       <c r="R46" t="n">
         <v>2266.156121351858</v>
@@ -7843,13 +7843,13 @@
         <v>1500.092623419163</v>
       </c>
       <c r="W46" t="n">
-        <v>1258.516622542622</v>
+        <v>1258.516622542623</v>
       </c>
       <c r="X46" t="n">
         <v>1078.368240805025</v>
       </c>
       <c r="Y46" t="n">
-        <v>905.416830821915</v>
+        <v>905.4168308219154</v>
       </c>
     </row>
   </sheetData>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>93.36503586380718</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>0</v>
       </c>
       <c r="P14" t="n">
-        <v>321.7987081714826</v>
+        <v>246.0671288632188</v>
       </c>
       <c r="Q14" t="n">
         <v>212.3149906599047</v>
@@ -9009,7 +9009,7 @@
         <v>0</v>
       </c>
       <c r="L15" t="n">
-        <v>6.003290466397516</v>
+        <v>0</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
@@ -9027,7 +9027,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.7775875345370196</v>
+        <v>6.780878000934383</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -9161,31 +9161,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
       </c>
       <c r="L17" t="n">
-        <v>417.6612145504504</v>
+        <v>0</v>
       </c>
       <c r="M17" t="n">
         <v>0</v>
       </c>
       <c r="N17" t="n">
-        <v>63.21894935782154</v>
+        <v>0</v>
       </c>
       <c r="O17" t="n">
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>136.5834113516403</v>
       </c>
       <c r="R17" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9240,7 +9240,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J18" t="n">
-        <v>6.003290466397516</v>
+        <v>0</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -9264,7 +9264,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.7775875345370196</v>
+        <v>6.780878000934383</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -9401,28 +9401,28 @@
         <v>0</v>
       </c>
       <c r="K20" t="n">
-        <v>0</v>
+        <v>209.8175201447465</v>
       </c>
       <c r="L20" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O20" t="n">
         <v>0</v>
       </c>
       <c r="P20" t="n">
-        <v>255.8482301561928</v>
+        <v>0</v>
       </c>
       <c r="Q20" t="n">
         <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9492,13 +9492,13 @@
         <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>6.003290466397516</v>
+        <v>0</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>0</v>
+        <v>6.003290466397374</v>
       </c>
       <c r="R21" t="n">
         <v>0.7775875345370196</v>
@@ -9638,13 +9638,13 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K23" t="n">
-        <v>0</v>
+        <v>127.0090935492173</v>
       </c>
       <c r="L23" t="n">
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>127.0090935492175</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
         <v>0</v>
@@ -9732,10 +9732,10 @@
         <v>0</v>
       </c>
       <c r="P24" t="n">
-        <v>6.003290466397914</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>6.003290466397829</v>
       </c>
       <c r="R24" t="n">
         <v>0.7775875345370196</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,19 +9881,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>305.2753854450341</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O26" t="n">
-        <v>39.41199585355821</v>
+        <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -9957,7 +9957,7 @@
         <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>6.003290466397857</v>
+        <v>0</v>
       </c>
       <c r="M27" t="n">
         <v>0</v>
@@ -9969,7 +9969,7 @@
         <v>0</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>6.003290466397914</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -10109,28 +10109,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>305.2753854450349</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>437.3469244119842</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
       </c>
       <c r="P29" t="n">
-        <v>0</v>
+        <v>37.06529145387526</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R29" t="n">
         <v>0</v>
@@ -10203,10 +10203,10 @@
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>6.003290466397971</v>
+        <v>0</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>6.003290466397914</v>
       </c>
       <c r="Q30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K32" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>293.1087763641851</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
         <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>295.494284152058</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10425,10 +10425,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>6.0032904663978</v>
       </c>
       <c r="K33" t="n">
-        <v>6.003290466397829</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>0</v>
@@ -10583,13 +10583,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
       </c>
       <c r="L35" t="n">
-        <v>417.6612145504504</v>
+        <v>295.4942841520569</v>
       </c>
       <c r="M35" t="n">
         <v>0</v>
@@ -10601,13 +10601,13 @@
         <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>112.6461046466621</v>
+        <v>0</v>
       </c>
       <c r="Q35" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R35" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10677,7 +10677,7 @@
         <v>0</v>
       </c>
       <c r="O36" t="n">
-        <v>6.003290466397971</v>
+        <v>0</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -10686,7 +10686,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>0.7775875345370196</v>
+        <v>6.780878000934842</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -10820,7 +10820,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
@@ -10832,19 +10832,19 @@
         <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>83.79071806138541</v>
+        <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>380.8001812627454</v>
+        <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>39.41199585355706</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -10902,7 +10902,7 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>6.0032904663978</v>
       </c>
       <c r="L39" t="n">
         <v>0</v>
@@ -10917,7 +10917,7 @@
         <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>6.003290466397914</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
         <v>0</v>
@@ -11057,13 +11057,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>0</v>
       </c>
       <c r="L41" t="n">
-        <v>0</v>
+        <v>15.07736583129912</v>
       </c>
       <c r="M41" t="n">
         <v>449.5135334928325</v>
@@ -11075,13 +11075,13 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>124.0121611921122</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11145,7 +11145,7 @@
         <v>0</v>
       </c>
       <c r="M42" t="n">
-        <v>6.0032904663978</v>
+        <v>0</v>
       </c>
       <c r="N42" t="n">
         <v>0</v>
@@ -11157,7 +11157,7 @@
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>6.003290466397829</v>
       </c>
       <c r="R42" t="n">
         <v>0.7775875345370196</v>
@@ -11312,7 +11312,7 @@
         <v>0</v>
       </c>
       <c r="P44" t="n">
-        <v>295.4942841520571</v>
+        <v>295.494284152058</v>
       </c>
       <c r="Q44" t="n">
         <v>212.3149906599047</v>
@@ -23255,22 +23255,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>370.0050541295695</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>62.89226622830726</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,19 +23312,19 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>250.9967003884377</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>87.79382548863404</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23461,19 +23461,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>89.31749152360085</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>32.55099630195784</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>286.2123056607526</v>
       </c>
       <c r="V13" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>0</v>
+        <v>42.31348951888498</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>109.6231253887476</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -23555,13 +23555,13 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>12.91466870416572</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>252.6580653558534</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>45.86225285270049</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>166.0343782699241</v>
       </c>
       <c r="H16" t="n">
-        <v>5.496474112986192</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>96.6101440102334</v>
+        <v>96.61014401023337</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,13 +23698,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>89.31749152360088</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>219.5855665954515</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>286.2123056607526</v>
@@ -23713,13 +23713,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>48.44355489859422</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23789,7 +23789,7 @@
         <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>48.44355489859166</v>
       </c>
       <c r="W17" t="n">
         <v>0</v>
@@ -24017,13 +24017,13 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>48.44355489859122</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>48.44355489859397</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -24838,13 +24838,13 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>-9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F31" t="n">
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>1145348.316467231</v>
+        <v>1145348.316467232</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1272303.339402291</v>
+        <v>1272303.339402292</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1272303.339402291</v>
+        <v>1272303.339402292</v>
       </c>
     </row>
     <row r="9">
@@ -26311,19 +26311,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>184337.1762113336</v>
+        <v>184337.1762113337</v>
       </c>
       <c r="C2" t="n">
         <v>184337.1762113337</v>
       </c>
       <c r="D2" t="n">
-        <v>184337.1762113337</v>
+        <v>184337.1762113336</v>
       </c>
       <c r="E2" t="n">
         <v>152967.6409671264</v>
       </c>
       <c r="F2" t="n">
-        <v>165135.705193598</v>
+        <v>165135.7051935981</v>
       </c>
       <c r="G2" t="n">
         <v>183866.77415123</v>
@@ -26344,16 +26344,16 @@
         <v>184734.3982194637</v>
       </c>
       <c r="M2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="N2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="O2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
       <c r="P2" t="n">
-        <v>184734.3982194637</v>
+        <v>184734.3982194638</v>
       </c>
     </row>
     <row r="3">
@@ -26375,16 +26375,16 @@
         <v>1118211.027744077</v>
       </c>
       <c r="F3" t="n">
-        <v>50161.28839521001</v>
+        <v>50161.28839521022</v>
       </c>
       <c r="G3" t="n">
-        <v>37890.20597505272</v>
+        <v>37890.2059750527</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-11</v>
       </c>
       <c r="I3" t="n">
-        <v>3319.459534680757</v>
+        <v>3319.459534680576</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -26393,19 +26393,19 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>37890.20597505273</v>
+        <v>37890.20597505269</v>
       </c>
       <c r="M3" t="n">
         <v>205737.2315485643</v>
       </c>
       <c r="N3" t="n">
-        <v>42878.67028742105</v>
+        <v>42878.67028742125</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>5.115907697472721e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26427,37 +26427,37 @@
         <v>8779.807816620578</v>
       </c>
       <c r="F4" t="n">
-        <v>26795.53396675475</v>
+        <v>26795.53396675482</v>
       </c>
       <c r="G4" t="n">
-        <v>74428.36230238137</v>
+        <v>74428.36230238143</v>
       </c>
       <c r="H4" t="n">
-        <v>74428.36230238137</v>
+        <v>74428.36230238144</v>
       </c>
       <c r="I4" t="n">
         <v>75712.94441204521</v>
       </c>
       <c r="J4" t="n">
-        <v>75712.94441204522</v>
+        <v>75712.9444120452</v>
       </c>
       <c r="K4" t="n">
-        <v>75712.94441204525</v>
+        <v>75712.9444120452</v>
       </c>
       <c r="L4" t="n">
-        <v>75712.94441204522</v>
+        <v>75712.94441204521</v>
       </c>
       <c r="M4" t="n">
-        <v>75712.94441204522</v>
+        <v>75712.94441204518</v>
       </c>
       <c r="N4" t="n">
-        <v>75712.94441204521</v>
+        <v>75712.94441204518</v>
       </c>
       <c r="O4" t="n">
         <v>75712.9444120452</v>
       </c>
       <c r="P4" t="n">
-        <v>75712.94441204524</v>
+        <v>75712.94441204521</v>
       </c>
     </row>
     <row r="5">
@@ -26479,13 +26479,13 @@
         <v>73848.64439395536</v>
       </c>
       <c r="F5" t="n">
-        <v>84492.72672654915</v>
+        <v>84492.7267265492</v>
       </c>
       <c r="G5" t="n">
-        <v>88474.46638419504</v>
+        <v>88474.46638419508</v>
       </c>
       <c r="H5" t="n">
-        <v>88474.46638419504</v>
+        <v>88474.46638419508</v>
       </c>
       <c r="I5" t="n">
         <v>89233.42539724248</v>
@@ -26497,7 +26497,7 @@
         <v>89233.42539724248</v>
       </c>
       <c r="L5" t="n">
-        <v>89233.42539724246</v>
+        <v>89233.42539724248</v>
       </c>
       <c r="M5" t="n">
         <v>89233.42539724246</v>
@@ -26509,7 +26509,7 @@
         <v>89233.42539724248</v>
       </c>
       <c r="P5" t="n">
-        <v>89233.42539724246</v>
+        <v>89233.42539724248</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-264062.8224016253</v>
+        <v>-264067.2359794934</v>
       </c>
       <c r="C6" t="n">
-        <v>-264062.8224016253</v>
+        <v>-264067.2359794934</v>
       </c>
       <c r="D6" t="n">
-        <v>-264062.8224016252</v>
+        <v>-264067.2359794934</v>
       </c>
       <c r="E6" t="n">
-        <v>-1047871.838987527</v>
+        <v>-1048224.802956997</v>
       </c>
       <c r="F6" t="n">
-        <v>3686.156105084112</v>
+        <v>3468.392849240884</v>
       </c>
       <c r="G6" t="n">
-        <v>-16926.26051039917</v>
+        <v>-16935.90077782406</v>
       </c>
       <c r="H6" t="n">
-        <v>20963.94546465356</v>
+        <v>20954.30519722859</v>
       </c>
       <c r="I6" t="n">
-        <v>16468.56887549526</v>
+        <v>16468.5688754954</v>
       </c>
       <c r="J6" t="n">
-        <v>19788.02841017598</v>
+        <v>19788.02841017606</v>
       </c>
       <c r="K6" t="n">
-        <v>19788.02841017598</v>
+        <v>19788.02841017606</v>
       </c>
       <c r="L6" t="n">
-        <v>-18102.17756487671</v>
+        <v>-18102.17756487665</v>
       </c>
       <c r="M6" t="n">
-        <v>-185949.2031383883</v>
+        <v>-185949.2031383882</v>
       </c>
       <c r="N6" t="n">
-        <v>-23090.64187724504</v>
+        <v>-23090.6418772451</v>
       </c>
       <c r="O6" t="n">
-        <v>19788.02841017606</v>
+        <v>19788.02841017612</v>
       </c>
       <c r="P6" t="n">
-        <v>19788.02841017595</v>
+        <v>19788.02841017611</v>
       </c>
     </row>
   </sheetData>
@@ -26701,31 +26701,31 @@
         <v>47.36275746881587</v>
       </c>
       <c r="H2" t="n">
+        <v>47.3627574688159</v>
+      </c>
+      <c r="I2" t="n">
         <v>47.36275746881589</v>
-      </c>
-      <c r="I2" t="n">
-        <v>47.36275746881587</v>
       </c>
       <c r="J2" t="n">
         <v>47.36275746881589</v>
       </c>
       <c r="K2" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="L2" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="M2" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="N2" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="O2" t="n">
         <v>47.36275746881587</v>
       </c>
       <c r="P2" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
     </row>
     <row r="3">
@@ -26811,10 +26811,10 @@
         <v>1013.12758729399</v>
       </c>
       <c r="J4" t="n">
-        <v>1013.12758729399</v>
+        <v>1013.127587293989</v>
       </c>
       <c r="K4" t="n">
-        <v>1013.12758729399</v>
+        <v>1013.127587293989</v>
       </c>
       <c r="L4" t="n">
         <v>1013.127587293989</v>
@@ -26829,7 +26829,7 @@
         <v>1013.127587293989</v>
       </c>
       <c r="P4" t="n">
-        <v>1013.127587293989</v>
+        <v>1013.12758729399</v>
       </c>
     </row>
   </sheetData>
@@ -26920,10 +26920,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881586</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26947,7 +26947,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.394884621840902e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27021,7 +27021,7 @@
         <v>825.5775651617323</v>
       </c>
       <c r="F4" t="n">
-        <v>175.0671436281874</v>
+        <v>175.0671436281881</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,7 +27030,7 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.48287850406984</v>
+        <v>12.48287850406916</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>825.5775651617323</v>
+        <v>825.5775651617322</v>
       </c>
       <c r="N4" t="n">
-        <v>175.0671436281875</v>
+        <v>175.0671436281882</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27157,10 +27157,10 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>47.3627574688159</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="M2" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-14</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27267,7 +27267,7 @@
         <v>825.5775651617323</v>
       </c>
       <c r="N4" t="n">
-        <v>175.0671436281874</v>
+        <v>175.0671436281881</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -28752,13 +28752,13 @@
         <v>47.36275746881587</v>
       </c>
       <c r="M19" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881665</v>
       </c>
       <c r="N19" t="n">
         <v>47.36275746881587</v>
       </c>
       <c r="O19" t="n">
-        <v>47.3627574688166</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="P19" t="n">
         <v>47.36275746881587</v>
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="C20" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="D20" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="E20" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="F20" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="G20" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="H20" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="I20" t="n">
         <v>42.31348951888498</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="T20" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="U20" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="V20" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="W20" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="X20" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="Y20" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="C22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="D22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="E22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="F22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="G22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="H22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="I22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="J22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="K22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.36275746881614</v>
       </c>
       <c r="L22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="M22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="N22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="O22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="P22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="Q22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="R22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="S22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="T22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="U22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="V22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="W22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="X22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="Y22" t="n">
-        <v>47.36275746881589</v>
+        <v>47.3627574688159</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C23" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D23" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E23" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F23" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G23" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H23" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I23" t="n">
         <v>42.31348951888498</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T23" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U23" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V23" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W23" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X23" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y23" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="J25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="K25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="L25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="M25" t="n">
-        <v>47.36275746881665</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="N25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="O25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="P25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Q25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="R25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="S25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y25" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="26">
@@ -29509,25 +29509,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="C29" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="D29" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="E29" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="F29" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="G29" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="H29" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="I29" t="n">
         <v>42.31348951888498</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="T29" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="U29" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="V29" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="W29" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="X29" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="Y29" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="C31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="D31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="E31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="F31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="G31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="H31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="I31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="J31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="K31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="L31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="M31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="N31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="O31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="P31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="Q31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="R31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="S31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="T31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="U31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="V31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="W31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="X31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
       <c r="Y31" t="n">
-        <v>47.36275746881592</v>
+        <v>47.3627574688159</v>
       </c>
     </row>
     <row r="32">
@@ -29746,25 +29746,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C32" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D32" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E32" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F32" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G32" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H32" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I32" t="n">
         <v>42.31348951888498</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T32" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U32" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V32" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W32" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X32" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y32" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="J34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="K34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="L34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="M34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="N34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="O34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="P34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Q34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="R34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="S34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y34" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C35" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D35" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E35" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F35" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G35" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H35" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I35" t="n">
         <v>42.31348951888498</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T35" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U35" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V35" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W35" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X35" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y35" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="C37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="D37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="E37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="F37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="G37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="H37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="I37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="J37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="K37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="L37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="M37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="N37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="O37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="P37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Q37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="R37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="S37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="T37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="U37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="V37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="W37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="X37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
       <c r="Y37" t="n">
-        <v>47.36275746881595</v>
+        <v>47.36275746881589</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="C38" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="D38" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="E38" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="F38" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="G38" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="H38" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="I38" t="n">
         <v>42.31348951888498</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="T38" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="U38" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="V38" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="W38" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="X38" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="Y38" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="C40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="D40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="E40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="F40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="G40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="H40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="I40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="J40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="K40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="L40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="M40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="N40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="O40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.3627574688166</v>
       </c>
       <c r="P40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="Q40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="R40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="S40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="T40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="U40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="V40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="W40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="X40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="Y40" t="n">
-        <v>47.36275746881591</v>
+        <v>47.36275746881587</v>
       </c>
     </row>
     <row r="41">
@@ -30651,7 +30651,7 @@
         <v>47.36275746881587</v>
       </c>
       <c r="N43" t="n">
-        <v>47.36275746881587</v>
+        <v>47.36275746881654</v>
       </c>
       <c r="O43" t="n">
         <v>47.36275746881587</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="C44" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="D44" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="E44" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="F44" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="G44" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="H44" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="I44" t="n">
         <v>42.31348951888498</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="T44" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="U44" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="V44" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="W44" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="X44" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="Y44" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="C46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="D46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="E46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="F46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="G46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="H46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="I46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="J46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="K46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="L46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="M46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881665</v>
       </c>
       <c r="N46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="O46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="P46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="Q46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="R46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="S46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="T46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="U46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="V46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="W46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="X46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
       <c r="Y46" t="n">
-        <v>47.36275746881594</v>
+        <v>47.36275746881587</v>
       </c>
     </row>
   </sheetData>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>282.5304925036542</v>
+        <v>358.2620718119207</v>
       </c>
       <c r="K14" t="n">
         <v>334.7610119484349</v>
@@ -35662,7 +35662,7 @@
         <v>504.8339611139644</v>
       </c>
       <c r="P14" t="n">
-        <v>717.8133184186454</v>
+        <v>642.0817391103815</v>
       </c>
       <c r="Q14" t="n">
         <v>461.0461305257749</v>
@@ -35729,7 +35729,7 @@
         <v>239.0202350283402</v>
       </c>
       <c r="L15" t="n">
-        <v>374.1859390023454</v>
+        <v>368.1826485359479</v>
       </c>
       <c r="M15" t="n">
         <v>449.2041768810325</v>
@@ -35747,7 +35747,7 @@
         <v>157.9290323396665</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>6.003290466397363</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>44.97251684272942</v>
+        <v>44.97251684272945</v>
       </c>
       <c r="K16" t="n">
         <v>205.0519800966014</v>
@@ -35823,7 +35823,7 @@
         <v>233.920567281852</v>
       </c>
       <c r="Q16" t="n">
-        <v>77.6766169891509</v>
+        <v>77.67661698915093</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>189.165456639847</v>
+        <v>358.2620718119207</v>
       </c>
       <c r="K17" t="n">
         <v>334.7610119484349</v>
       </c>
       <c r="L17" t="n">
-        <v>870.236358393261</v>
+        <v>452.5751438428105</v>
       </c>
       <c r="M17" t="n">
         <v>535.5663801712518</v>
       </c>
       <c r="N17" t="n">
-        <v>612.1117659815278</v>
+        <v>548.8928166237063</v>
       </c>
       <c r="O17" t="n">
         <v>504.8339611139644</v>
       </c>
       <c r="P17" t="n">
-        <v>396.0146102471627</v>
+        <v>717.8133184186454</v>
       </c>
       <c r="Q17" t="n">
-        <v>461.0461305257749</v>
+        <v>385.3145512175105</v>
       </c>
       <c r="R17" t="n">
-        <v>58.41307089441727</v>
+        <v>124.1294907673997</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>99.66101430879303</v>
+        <v>93.65772384239551</v>
       </c>
       <c r="K18" t="n">
         <v>239.0202350283402</v>
@@ -35984,7 +35984,7 @@
         <v>157.9290323396665</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>6.003290466397363</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36048,13 +36048,13 @@
         <v>365.8460027463706</v>
       </c>
       <c r="M19" t="n">
-        <v>393.6527486997798</v>
+        <v>393.6527486997806</v>
       </c>
       <c r="N19" t="n">
         <v>390.9082582417206</v>
       </c>
       <c r="O19" t="n">
-        <v>348.5045556059226</v>
+        <v>348.5045556059218</v>
       </c>
       <c r="P19" t="n">
         <v>281.2833247506679</v>
@@ -36121,28 +36121,28 @@
         <v>189.165456639847</v>
       </c>
       <c r="K20" t="n">
-        <v>334.7610119484349</v>
+        <v>544.5785320931815</v>
       </c>
       <c r="L20" t="n">
-        <v>452.5751438428105</v>
+        <v>870.236358393261</v>
       </c>
       <c r="M20" t="n">
         <v>535.5663801712518</v>
       </c>
       <c r="N20" t="n">
-        <v>986.2397410356904</v>
+        <v>548.8928166237063</v>
       </c>
       <c r="O20" t="n">
         <v>504.8339611139644</v>
       </c>
       <c r="P20" t="n">
-        <v>651.8628404033554</v>
+        <v>396.0146102471627</v>
       </c>
       <c r="Q20" t="n">
         <v>248.7311398658702</v>
       </c>
       <c r="R20" t="n">
-        <v>58.41307089441727</v>
+        <v>124.1294907673997</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36212,13 +36212,13 @@
         <v>475.6474615779117</v>
       </c>
       <c r="O21" t="n">
-        <v>418.6835549614218</v>
+        <v>412.6802644950243</v>
       </c>
       <c r="P21" t="n">
         <v>311.6839450513654</v>
       </c>
       <c r="Q21" t="n">
-        <v>157.9290323396665</v>
+        <v>163.9323228060639</v>
       </c>
       <c r="R21" t="n">
         <v>0</v>
@@ -36276,10 +36276,10 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>92.33527431154533</v>
+        <v>92.33527431154535</v>
       </c>
       <c r="K22" t="n">
-        <v>252.4147375654173</v>
+        <v>252.4147375654175</v>
       </c>
       <c r="L22" t="n">
         <v>365.8460027463706</v>
@@ -36291,7 +36291,7 @@
         <v>390.9082582417206</v>
       </c>
       <c r="O22" t="n">
-        <v>348.5045556059218</v>
+        <v>348.5045556059219</v>
       </c>
       <c r="P22" t="n">
         <v>281.2833247506679</v>
@@ -36358,13 +36358,13 @@
         <v>358.2620718119207</v>
       </c>
       <c r="K23" t="n">
-        <v>334.7610119484349</v>
+        <v>461.7701054976523</v>
       </c>
       <c r="L23" t="n">
         <v>452.5751438428105</v>
       </c>
       <c r="M23" t="n">
-        <v>662.5754737204693</v>
+        <v>535.5663801712518</v>
       </c>
       <c r="N23" t="n">
         <v>548.8928166237063</v>
@@ -36452,10 +36452,10 @@
         <v>412.6802644950243</v>
       </c>
       <c r="P24" t="n">
-        <v>317.6872355177633</v>
+        <v>311.6839450513654</v>
       </c>
       <c r="Q24" t="n">
-        <v>157.9290323396665</v>
+        <v>163.9323228060643</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>92.33527431154532</v>
+        <v>92.33527431154533</v>
       </c>
       <c r="K25" t="n">
         <v>252.4147375654173</v>
@@ -36522,7 +36522,7 @@
         <v>365.8460027463706</v>
       </c>
       <c r="M25" t="n">
-        <v>393.6527486997806</v>
+        <v>393.6527486997799</v>
       </c>
       <c r="N25" t="n">
         <v>390.9082582417206</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>358.2620718119207</v>
+        <v>189.165456639847</v>
       </c>
       <c r="K26" t="n">
         <v>334.7610119484349</v>
@@ -36601,19 +36601,19 @@
         <v>452.5751438428105</v>
       </c>
       <c r="M26" t="n">
-        <v>535.5663801712518</v>
+        <v>840.8417656162859</v>
       </c>
       <c r="N26" t="n">
-        <v>548.8928166237063</v>
+        <v>986.2397410356904</v>
       </c>
       <c r="O26" t="n">
-        <v>544.2459569675226</v>
+        <v>504.8339611139644</v>
       </c>
       <c r="P26" t="n">
-        <v>717.8133184186454</v>
+        <v>396.0146102471627</v>
       </c>
       <c r="Q26" t="n">
-        <v>461.0461305257749</v>
+        <v>248.7311398658702</v>
       </c>
       <c r="R26" t="n">
         <v>58.41307089441727</v>
@@ -36677,7 +36677,7 @@
         <v>239.0202350283402</v>
       </c>
       <c r="L27" t="n">
-        <v>374.1859390023458</v>
+        <v>368.1826485359479</v>
       </c>
       <c r="M27" t="n">
         <v>449.2041768810325</v>
@@ -36689,7 +36689,7 @@
         <v>412.6802644950243</v>
       </c>
       <c r="P27" t="n">
-        <v>311.6839450513654</v>
+        <v>317.6872355177633</v>
       </c>
       <c r="Q27" t="n">
         <v>157.9290323396665</v>
@@ -36829,28 +36829,28 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>189.165456639847</v>
+        <v>358.2620718119207</v>
       </c>
       <c r="K29" t="n">
-        <v>334.7610119484349</v>
+        <v>658.9064245195997</v>
       </c>
       <c r="L29" t="n">
-        <v>757.8505292878455</v>
+        <v>452.5751438428105</v>
       </c>
       <c r="M29" t="n">
         <v>535.5663801712518</v>
       </c>
       <c r="N29" t="n">
-        <v>986.2397410356904</v>
+        <v>548.8928166237063</v>
       </c>
       <c r="O29" t="n">
         <v>504.8339611139644</v>
       </c>
       <c r="P29" t="n">
-        <v>396.0146102471627</v>
+        <v>433.079901701038</v>
       </c>
       <c r="Q29" t="n">
-        <v>248.7311398658702</v>
+        <v>461.0461305257749</v>
       </c>
       <c r="R29" t="n">
         <v>58.41307089441727</v>
@@ -36923,10 +36923,10 @@
         <v>475.6474615779117</v>
       </c>
       <c r="O30" t="n">
-        <v>418.6835549614223</v>
+        <v>412.6802644950243</v>
       </c>
       <c r="P30" t="n">
-        <v>311.6839450513654</v>
+        <v>317.6872355177633</v>
       </c>
       <c r="Q30" t="n">
         <v>157.9290323396665</v>
@@ -36987,7 +36987,7 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>92.33527431154536</v>
+        <v>92.33527431154535</v>
       </c>
       <c r="K31" t="n">
         <v>252.4147375654173</v>
@@ -36999,7 +36999,7 @@
         <v>393.6527486997799</v>
       </c>
       <c r="N31" t="n">
-        <v>390.9082582417207</v>
+        <v>390.9082582417206</v>
       </c>
       <c r="O31" t="n">
         <v>348.5045556059219</v>
@@ -37008,7 +37008,7 @@
         <v>281.2833247506679</v>
       </c>
       <c r="Q31" t="n">
-        <v>125.0393744579669</v>
+        <v>125.0393744579668</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>189.165456639847</v>
+        <v>358.2620718119207</v>
       </c>
       <c r="K32" t="n">
         <v>334.7610119484349</v>
@@ -37075,22 +37075,22 @@
         <v>452.5751438428105</v>
       </c>
       <c r="M32" t="n">
-        <v>985.0799136640843</v>
+        <v>535.5663801712518</v>
       </c>
       <c r="N32" t="n">
-        <v>842.0015929878914</v>
+        <v>548.8928166237063</v>
       </c>
       <c r="O32" t="n">
         <v>504.8339611139644</v>
       </c>
       <c r="P32" t="n">
-        <v>396.0146102471627</v>
+        <v>691.5088943992207</v>
       </c>
       <c r="Q32" t="n">
-        <v>248.7311398658702</v>
+        <v>461.0461305257749</v>
       </c>
       <c r="R32" t="n">
-        <v>58.41307089441727</v>
+        <v>124.1294907673997</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,10 +37145,10 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>93.65772384239551</v>
+        <v>99.66101430879331</v>
       </c>
       <c r="K33" t="n">
-        <v>245.023525494738</v>
+        <v>239.0202350283402</v>
       </c>
       <c r="L33" t="n">
         <v>368.1826485359479</v>
@@ -37224,7 +37224,7 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>92.33527431154539</v>
+        <v>92.33527431154533</v>
       </c>
       <c r="K34" t="n">
         <v>252.4147375654173</v>
@@ -37239,13 +37239,13 @@
         <v>390.9082582417206</v>
       </c>
       <c r="O34" t="n">
-        <v>348.5045556059219</v>
+        <v>348.5045556059218</v>
       </c>
       <c r="P34" t="n">
         <v>281.2833247506679</v>
       </c>
       <c r="Q34" t="n">
-        <v>125.0393744579669</v>
+        <v>125.0393744579668</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37303,13 +37303,13 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>189.165456639847</v>
+        <v>358.2620718119207</v>
       </c>
       <c r="K35" t="n">
         <v>334.7610119484349</v>
       </c>
       <c r="L35" t="n">
-        <v>870.236358393261</v>
+        <v>748.0694279948674</v>
       </c>
       <c r="M35" t="n">
         <v>535.5663801712518</v>
@@ -37321,13 +37321,13 @@
         <v>504.8339611139644</v>
       </c>
       <c r="P35" t="n">
-        <v>508.6607148938248</v>
+        <v>396.0146102471627</v>
       </c>
       <c r="Q35" t="n">
         <v>461.0461305257749</v>
       </c>
       <c r="R35" t="n">
-        <v>58.41307089441727</v>
+        <v>124.1294907673997</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37397,7 +37397,7 @@
         <v>475.6474615779117</v>
       </c>
       <c r="O36" t="n">
-        <v>418.6835549614223</v>
+        <v>412.6802644950243</v>
       </c>
       <c r="P36" t="n">
         <v>311.6839450513654</v>
@@ -37406,7 +37406,7 @@
         <v>157.9290323396665</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>6.003290466397822</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,28 +37461,28 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>92.33527431154539</v>
+        <v>92.33527431154533</v>
       </c>
       <c r="K37" t="n">
         <v>252.4147375654173</v>
       </c>
       <c r="L37" t="n">
-        <v>365.8460027463707</v>
+        <v>365.8460027463706</v>
       </c>
       <c r="M37" t="n">
         <v>393.6527486997799</v>
       </c>
       <c r="N37" t="n">
-        <v>390.9082582417207</v>
+        <v>390.9082582417206</v>
       </c>
       <c r="O37" t="n">
-        <v>348.504555605922</v>
+        <v>348.5045556059218</v>
       </c>
       <c r="P37" t="n">
-        <v>281.283324750668</v>
+        <v>281.2833247506679</v>
       </c>
       <c r="Q37" t="n">
-        <v>125.0393744579669</v>
+        <v>125.0393744579668</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>189.165456639847</v>
+        <v>358.2620718119207</v>
       </c>
       <c r="K38" t="n">
         <v>334.7610119484349</v>
@@ -37552,19 +37552,19 @@
         <v>535.5663801712518</v>
       </c>
       <c r="N38" t="n">
-        <v>632.6835346850917</v>
+        <v>548.8928166237063</v>
       </c>
       <c r="O38" t="n">
-        <v>885.6341423767097</v>
+        <v>504.8339611139644</v>
       </c>
       <c r="P38" t="n">
-        <v>396.0146102471627</v>
+        <v>717.8133184186454</v>
       </c>
       <c r="Q38" t="n">
         <v>461.0461305257749</v>
       </c>
       <c r="R38" t="n">
-        <v>124.1294907673997</v>
+        <v>97.82506674797433</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>93.65772384239551</v>
       </c>
       <c r="K39" t="n">
-        <v>239.0202350283402</v>
+        <v>245.023525494738</v>
       </c>
       <c r="L39" t="n">
         <v>368.1826485359479</v>
@@ -37637,7 +37637,7 @@
         <v>412.6802644950243</v>
       </c>
       <c r="P39" t="n">
-        <v>317.6872355177633</v>
+        <v>311.6839450513654</v>
       </c>
       <c r="Q39" t="n">
         <v>157.9290323396665</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.33527431154536</v>
+        <v>92.33527431154532</v>
       </c>
       <c r="K40" t="n">
         <v>252.4147375654173</v>
@@ -37707,13 +37707,13 @@
         <v>365.8460027463706</v>
       </c>
       <c r="M40" t="n">
-        <v>393.6527486997799</v>
+        <v>393.6527486997798</v>
       </c>
       <c r="N40" t="n">
         <v>390.9082582417206</v>
       </c>
       <c r="O40" t="n">
-        <v>348.5045556059219</v>
+        <v>348.5045556059226</v>
       </c>
       <c r="P40" t="n">
         <v>281.2833247506679</v>
@@ -37777,13 +37777,13 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>358.2620718119207</v>
+        <v>189.165456639847</v>
       </c>
       <c r="K41" t="n">
         <v>334.7610119484349</v>
       </c>
       <c r="L41" t="n">
-        <v>452.5751438428105</v>
+        <v>467.6525096741096</v>
       </c>
       <c r="M41" t="n">
         <v>985.0799136640843</v>
@@ -37795,13 +37795,13 @@
         <v>504.8339611139644</v>
       </c>
       <c r="P41" t="n">
-        <v>520.0267714392749</v>
+        <v>396.0146102471627</v>
       </c>
       <c r="Q41" t="n">
-        <v>248.7311398658702</v>
+        <v>461.0461305257749</v>
       </c>
       <c r="R41" t="n">
-        <v>58.41307089441727</v>
+        <v>124.1294907673997</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37865,7 +37865,7 @@
         <v>368.1826485359479</v>
       </c>
       <c r="M42" t="n">
-        <v>455.2074673474303</v>
+        <v>449.2041768810325</v>
       </c>
       <c r="N42" t="n">
         <v>475.6474615779117</v>
@@ -37877,7 +37877,7 @@
         <v>311.6839450513654</v>
       </c>
       <c r="Q42" t="n">
-        <v>157.9290323396665</v>
+        <v>163.9323228060643</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37947,7 +37947,7 @@
         <v>393.6527486997798</v>
       </c>
       <c r="N43" t="n">
-        <v>390.9082582417205</v>
+        <v>390.9082582417212</v>
       </c>
       <c r="O43" t="n">
         <v>348.5045556059218</v>
@@ -38032,7 +38032,7 @@
         <v>504.8339611139644</v>
       </c>
       <c r="P44" t="n">
-        <v>691.5088943992198</v>
+        <v>691.5088943992207</v>
       </c>
       <c r="Q44" t="n">
         <v>461.0461305257749</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.33527431154539</v>
+        <v>92.33527431154532</v>
       </c>
       <c r="K46" t="n">
         <v>252.4147375654173</v>
@@ -38181,19 +38181,19 @@
         <v>365.8460027463706</v>
       </c>
       <c r="M46" t="n">
-        <v>393.6527486997799</v>
+        <v>393.6527486997806</v>
       </c>
       <c r="N46" t="n">
         <v>390.9082582417206</v>
       </c>
       <c r="O46" t="n">
-        <v>348.5045556059219</v>
+        <v>348.5045556059218</v>
       </c>
       <c r="P46" t="n">
         <v>281.2833247506679</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.0393744579669</v>
+        <v>125.0393744579668</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
